--- a/Band2MinPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MinPowerInput1_FrequencySweepRanges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\DVT-Wireless-HCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB6C1A-0E90-4CE1-A8EC-3FCDE94CF410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D17B85-349F-4745-B739-B53EBB8D94AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="2505" yWindow="1335" windowWidth="25500" windowHeight="14265" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -6763,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108741B-A8D0-4BB3-B12C-6B68B68001DF}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6778,7 +6778,7 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
@@ -8394,7 +8394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDABD784-AD31-46F2-99DC-A4DD1B41AE1B}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -9168,10 +9168,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9185,9 +9185,10 @@
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -9243,7 +9244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>66</v>
       </c>
@@ -9277,9 +9278,8 @@
       <c r="K2" s="39">
         <v>1000000000</v>
       </c>
-      <c r="L2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+      <c r="L2" s="2">
+        <v>1719199999.9999998</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -9290,9 +9290,8 @@
       <c r="O2" s="54">
         <v>1000000000</v>
       </c>
-      <c r="P2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+      <c r="P2" s="2">
+        <v>1702199999.9999998</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -9301,8 +9300,11 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -9358,8 +9360,11 @@
         <f t="shared" ref="R3:R28" si="0">C3-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="2">
+        <v>1702199999.9999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -9415,8 +9420,11 @@
         <f t="shared" si="0"/>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -9472,8 +9480,11 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="2">
+        <v>1719199999.9999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -9529,8 +9540,12 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <f>T4/2</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -9587,7 +9602,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -9644,7 +9659,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -9701,7 +9716,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -9758,7 +9773,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -9815,7 +9830,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -9872,7 +9887,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -9929,7 +9944,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -9986,7 +10001,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -10043,7 +10058,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>

--- a/Band2MinPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MinPowerInput1_FrequencySweepRanges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\DVT-Wireless-HCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hclo365-my.sharepoint.com/personal/aayush_jain_hcl_com/Documents/Facebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D17B85-349F-4745-B739-B53EBB8D94AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{29D0E568-EE65-415B-89C9-359224AD92FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9E78942-3682-4B82-9F5A-C1F40CDDCA2D}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1335" windowWidth="25500" windowHeight="14265" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="91">
   <si>
     <t>Band</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>Power Level</t>
   </si>
   <si>
     <t>BAND</t>
@@ -328,6 +331,12 @@
   <si>
     <t>UL Frequency</t>
   </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -500,6 +509,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -507,7 +525,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -575,9 +593,10 @@
     <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -895,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F21EF5-0615-4121-83E8-517FC8180B1A}">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,23 +927,23 @@
     <col min="3" max="3" width="18.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="40" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="38" customWidth="1"/>
     <col min="8" max="10" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="38" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="15.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.28515625" style="38" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="38"/>
-    <col min="20" max="20" width="24.28515625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="27.5703125" style="38" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" style="38" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="67.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="38"/>
+    <col min="17" max="19" width="19.28515625" style="38" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="38"/>
+    <col min="21" max="21" width="24.28515625" style="38" customWidth="1"/>
+    <col min="22" max="22" width="27.5703125" style="38" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="67.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -940,53 +959,51 @@
       <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>35</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="S1" s="67"/>
       <c r="U1" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="38" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="Z1" s="38" t="s">
         <v>64</v>
@@ -1015,8 +1032,11 @@
       <c r="AH1" s="38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>2</v>
       </c>
@@ -1032,8 +1052,8 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="68">
-        <v>-20</v>
+      <c r="F2" s="52">
+        <v>23</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>7</v>
@@ -1074,23 +1094,21 @@
         <f>C2-80</f>
         <v>1850.7</v>
       </c>
-      <c r="T2" s="38">
-        <v>9000</v>
-      </c>
+      <c r="S2" s="68"/>
       <c r="U2" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="Y2" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="38" t="s">
-        <v>73</v>
+        <v>9000</v>
+      </c>
+      <c r="V2" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="Z2" s="38">
+        <v>1</v>
       </c>
       <c r="AB2" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" s="38" t="s">
         <v>74</v>
@@ -1099,16 +1117,19 @@
         <v>75</v>
       </c>
       <c r="AF2" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH2" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI2" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -1122,8 +1143,8 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="68">
-        <v>-20</v>
+      <c r="F3" s="52">
+        <v>23</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>7</v>
@@ -1164,29 +1185,27 @@
         <f t="shared" ref="R3:R28" si="0">C3-80</f>
         <v>1850.7</v>
       </c>
-      <c r="S3" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>73</v>
+      <c r="S3" s="68"/>
+      <c r="T3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="Z3" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" s="38" t="s">
         <v>74</v>
@@ -1195,16 +1214,19 @@
         <v>75</v>
       </c>
       <c r="AF3" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH3" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI3" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -1218,8 +1240,8 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="68">
-        <v>-20</v>
+      <c r="F4" s="52">
+        <v>23</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>7</v>
@@ -1260,32 +1282,30 @@
         <f t="shared" si="0"/>
         <v>1850.7</v>
       </c>
-      <c r="S4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="38">
-        <v>1000000000</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>46</v>
+      <c r="S4" s="68"/>
+      <c r="T4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="38">
+        <v>1000000000</v>
       </c>
       <c r="V4" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="W4" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="Z4" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" s="38" t="s">
         <v>74</v>
@@ -1294,16 +1314,19 @@
         <v>75</v>
       </c>
       <c r="AF4" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH4" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI4" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -1317,8 +1340,8 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="68">
-        <v>-20</v>
+      <c r="F5" s="52">
+        <v>23</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>7</v>
@@ -1359,32 +1382,30 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S5" s="38" t="s">
-        <v>44</v>
-      </c>
+      <c r="S5" s="68"/>
       <c r="T5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="38">
-        <v>12750000000</v>
-      </c>
-      <c r="V5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="38" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="U5" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="38">
+        <v>12750000000</v>
+      </c>
+      <c r="W5" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" s="38" t="s">
         <v>74</v>
@@ -1393,16 +1414,19 @@
         <v>75</v>
       </c>
       <c r="AF5" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH5" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI5" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -1416,8 +1440,8 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="68">
-        <v>-20</v>
+      <c r="F6" s="52">
+        <v>23</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>7</v>
@@ -1458,20 +1482,18 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="Y6" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S6" s="68"/>
       <c r="Z6" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" s="38" t="s">
         <v>74</v>
@@ -1480,16 +1502,19 @@
         <v>75</v>
       </c>
       <c r="AF6" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH6" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI6" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -1503,8 +1528,8 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="68">
-        <v>-20</v>
+      <c r="F7" s="52">
+        <v>23</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>7</v>
@@ -1545,20 +1570,18 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="Y7" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S7" s="68"/>
       <c r="Z7" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" s="38" t="s">
         <v>74</v>
@@ -1567,16 +1590,19 @@
         <v>75</v>
       </c>
       <c r="AF7" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH7" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI7" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -1590,8 +1616,8 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="68">
-        <v>-20</v>
+      <c r="F8" s="52">
+        <v>23</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>7</v>
@@ -1632,30 +1658,28 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="T8" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="38">
+      <c r="S8" s="68"/>
+      <c r="U8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="38">
         <v>1927200000</v>
       </c>
-      <c r="W8" s="38">
-        <f>V8-W10</f>
+      <c r="X8" s="38">
+        <f>W8-X10</f>
         <v>1927150000</v>
       </c>
-      <c r="Y8" s="38" t="s">
-        <v>73</v>
-      </c>
       <c r="Z8" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" s="38" t="s">
         <v>74</v>
@@ -1664,16 +1688,19 @@
         <v>75</v>
       </c>
       <c r="AF8" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH8" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI8" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -1687,8 +1714,8 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="68">
-        <v>-20</v>
+      <c r="F9" s="52">
+        <v>23</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>7</v>
@@ -1729,23 +1756,21 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="T9" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="38" t="s">
-        <v>73</v>
+      <c r="S9" s="68"/>
+      <c r="U9" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="Z9" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" s="38" t="s">
         <v>74</v>
@@ -1754,16 +1779,19 @@
         <v>75</v>
       </c>
       <c r="AF9" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH9" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI9" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -1777,8 +1805,8 @@
       <c r="E10" s="51">
         <v>99</v>
       </c>
-      <c r="F10" s="68">
-        <v>-20</v>
+      <c r="F10" s="52">
+        <v>23</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>7</v>
@@ -1819,31 +1847,29 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="T10" s="40" t="e" cm="1">
-        <f t="array" ref="T10">P</f>
+      <c r="S10" s="68"/>
+      <c r="U10" s="40" t="e" cm="1">
+        <f t="array" ref="U10">P</f>
         <v>#NAME?</v>
       </c>
-      <c r="V10" s="38">
+      <c r="W10" s="38">
         <v>100000</v>
       </c>
-      <c r="W10" s="38">
-        <f>V10/2</f>
+      <c r="X10" s="38">
+        <f>W10/2</f>
         <v>50000</v>
       </c>
-      <c r="Y10" s="38" t="s">
-        <v>73</v>
-      </c>
       <c r="Z10" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" s="38" t="s">
         <v>74</v>
@@ -1852,16 +1878,19 @@
         <v>75</v>
       </c>
       <c r="AF10" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH10" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI10" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -1875,8 +1904,8 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="68">
-        <v>-20</v>
+      <c r="F11" s="43">
+        <v>23</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>8</v>
@@ -1917,20 +1946,18 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="Y11" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S11" s="68"/>
       <c r="Z11" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" s="38" t="s">
         <v>74</v>
@@ -1939,16 +1966,19 @@
         <v>75</v>
       </c>
       <c r="AF11" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH11" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI11" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -1962,8 +1992,8 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="68">
-        <v>-20</v>
+      <c r="F12" s="43">
+        <v>23</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>8</v>
@@ -2004,20 +2034,18 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="Y12" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S12" s="68"/>
       <c r="Z12" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" s="38" t="s">
         <v>74</v>
@@ -2026,16 +2054,19 @@
         <v>75</v>
       </c>
       <c r="AF12" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH12" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI12" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -2049,8 +2080,8 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="68">
-        <v>-20</v>
+      <c r="F13" s="43">
+        <v>23</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>8</v>
@@ -2091,20 +2122,18 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="Y13" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S13" s="68"/>
       <c r="Z13" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" s="38" t="s">
         <v>74</v>
@@ -2113,16 +2142,19 @@
         <v>75</v>
       </c>
       <c r="AF13" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH13" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI13" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -2136,8 +2168,8 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="68">
-        <v>-20</v>
+      <c r="F14" s="43">
+        <v>23</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>8</v>
@@ -2178,20 +2210,18 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="Y14" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S14" s="68"/>
       <c r="Z14" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" s="38" t="s">
         <v>74</v>
@@ -2200,16 +2230,19 @@
         <v>75</v>
       </c>
       <c r="AF14" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH14" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI14" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -2223,8 +2256,8 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="68">
-        <v>-20</v>
+      <c r="F15" s="43">
+        <v>23</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>8</v>
@@ -2265,23 +2298,21 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="V15" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y15" s="38" t="s">
-        <v>73</v>
+      <c r="S15" s="68"/>
+      <c r="W15" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="Z15" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" s="38" t="s">
         <v>74</v>
@@ -2290,16 +2321,19 @@
         <v>75</v>
       </c>
       <c r="AF15" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH15" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI15" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -2313,8 +2347,8 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="68">
-        <v>-20</v>
+      <c r="F16" s="43">
+        <v>23</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>8</v>
@@ -2355,23 +2389,21 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="X16" s="38" t="s">
-        <v>52</v>
-      </c>
+      <c r="S16" s="68"/>
       <c r="Y16" s="38" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z16" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" s="38" t="s">
         <v>74</v>
@@ -2380,16 +2412,19 @@
         <v>75</v>
       </c>
       <c r="AF16" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH16" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI16" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>20</v>
@@ -2403,8 +2438,8 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="68">
-        <v>-20</v>
+      <c r="F17" s="43">
+        <v>23</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>8</v>
@@ -2445,23 +2480,21 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="X17" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="S17" s="68"/>
       <c r="Y17" s="38" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="Z17" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" s="38" t="s">
         <v>74</v>
@@ -2470,16 +2503,19 @@
         <v>75</v>
       </c>
       <c r="AF17" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH17" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI17" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>20</v>
@@ -2493,8 +2529,8 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="68">
-        <v>-20</v>
+      <c r="F18" s="43">
+        <v>23</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>8</v>
@@ -2535,23 +2571,21 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="X18" s="38" t="s">
-        <v>54</v>
-      </c>
+      <c r="S18" s="68"/>
       <c r="Y18" s="38" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" s="38" t="s">
         <v>74</v>
@@ -2560,16 +2594,19 @@
         <v>75</v>
       </c>
       <c r="AF18" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH18" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI18" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>20</v>
@@ -2583,8 +2620,8 @@
       <c r="E19" s="41">
         <v>99</v>
       </c>
-      <c r="F19" s="68">
-        <v>-20</v>
+      <c r="F19" s="43">
+        <v>23</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>8</v>
@@ -2625,23 +2662,21 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="X19" s="38" t="s">
-        <v>55</v>
-      </c>
+      <c r="S19" s="68"/>
       <c r="Y19" s="38" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="Z19" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" s="38" t="s">
         <v>74</v>
@@ -2650,16 +2685,19 @@
         <v>75</v>
       </c>
       <c r="AF19" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH19" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI19" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -2673,8 +2711,8 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="68">
-        <v>-20</v>
+      <c r="F20" s="46">
+        <v>23</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>9</v>
@@ -2715,23 +2753,21 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="V20" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y20" s="38" t="s">
-        <v>73</v>
+      <c r="S20" s="68"/>
+      <c r="W20" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="Z20" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" s="38" t="s">
         <v>74</v>
@@ -2740,16 +2776,19 @@
         <v>75</v>
       </c>
       <c r="AF20" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH20" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI20" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -2763,8 +2802,8 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="68">
-        <v>-20</v>
+      <c r="F21" s="46">
+        <v>23</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>9</v>
@@ -2805,23 +2844,21 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="X21" s="38" t="s">
-        <v>57</v>
-      </c>
+      <c r="S21" s="68"/>
       <c r="Y21" s="38" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" s="38" t="s">
         <v>74</v>
@@ -2830,16 +2867,19 @@
         <v>75</v>
       </c>
       <c r="AF21" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG21" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH21" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI21" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -2853,8 +2893,8 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="68">
-        <v>-20</v>
+      <c r="F22" s="46">
+        <v>23</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>9</v>
@@ -2895,23 +2935,21 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="X22" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="S22" s="68"/>
       <c r="Y22" s="38" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="Z22" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" s="38" t="s">
         <v>74</v>
@@ -2920,16 +2958,19 @@
         <v>75</v>
       </c>
       <c r="AF22" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG22" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH22" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI22" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -2943,8 +2984,8 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="68">
-        <v>-20</v>
+      <c r="F23" s="46">
+        <v>23</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>9</v>
@@ -2985,23 +3026,21 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="X23" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="S23" s="68"/>
       <c r="Y23" s="38" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Z23" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB23" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC23" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" s="38" t="s">
         <v>74</v>
@@ -3010,16 +3049,19 @@
         <v>75</v>
       </c>
       <c r="AF23" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG23" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH23" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI23" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -3033,8 +3075,8 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="68">
-        <v>-20</v>
+      <c r="F24" s="46">
+        <v>23</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>9</v>
@@ -3075,23 +3117,21 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="X24" s="38" t="s">
-        <v>60</v>
-      </c>
+      <c r="S24" s="68"/>
       <c r="Y24" s="38" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Z24" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" s="38" t="s">
         <v>74</v>
@@ -3100,16 +3140,19 @@
         <v>75</v>
       </c>
       <c r="AF24" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG24" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH24" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI24" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -3123,8 +3166,8 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="68">
-        <v>-20</v>
+      <c r="F25" s="46">
+        <v>23</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>9</v>
@@ -3165,20 +3208,18 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="Y25" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S25" s="68"/>
       <c r="Z25" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" s="38" t="s">
         <v>74</v>
@@ -3187,16 +3228,19 @@
         <v>75</v>
       </c>
       <c r="AF25" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG25" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH25" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI25" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>20</v>
@@ -3210,8 +3254,8 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="68">
-        <v>-20</v>
+      <c r="F26" s="46">
+        <v>23</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>9</v>
@@ -3252,23 +3296,21 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="X26" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="S26" s="68"/>
       <c r="Y26" s="38" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Z26" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" s="38" t="s">
         <v>74</v>
@@ -3277,16 +3319,19 @@
         <v>75</v>
       </c>
       <c r="AF26" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG26" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH26" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI26" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>20</v>
@@ -3300,8 +3345,8 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="68">
-        <v>-20</v>
+      <c r="F27" s="46">
+        <v>23</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>9</v>
@@ -3342,23 +3387,21 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="X27" s="38" t="s">
-        <v>62</v>
-      </c>
+      <c r="S27" s="68"/>
       <c r="Y27" s="38" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Z27" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" s="38" t="s">
         <v>74</v>
@@ -3367,16 +3410,19 @@
         <v>75</v>
       </c>
       <c r="AF27" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG27" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH27" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="AI27" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>20</v>
@@ -3390,8 +3436,8 @@
       <c r="E28" s="44">
         <v>99</v>
       </c>
-      <c r="F28" s="68">
-        <v>-20</v>
+      <c r="F28" s="46">
+        <v>23</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>9</v>
@@ -3432,20 +3478,18 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="Y28" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S28" s="68"/>
       <c r="Z28" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" s="38" t="s">
         <v>74</v>
@@ -3454,13 +3498,16 @@
         <v>75</v>
       </c>
       <c r="AF28" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG28" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AH28" s="38" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="AI28" s="38" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3525,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,7 +3534,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
@@ -3517,44 +3564,44 @@
       <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3573,8 +3620,8 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="68">
-        <v>-20</v>
+      <c r="F2" s="52">
+        <v>23</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>7</v>
@@ -3630,8 +3677,8 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="68">
-        <v>-20</v>
+      <c r="F3" s="52">
+        <v>23</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>7</v>
@@ -3687,8 +3734,8 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="68">
-        <v>-20</v>
+      <c r="F4" s="52">
+        <v>23</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>7</v>
@@ -3744,8 +3791,8 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="68">
-        <v>-20</v>
+      <c r="F5" s="52">
+        <v>23</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>7</v>
@@ -3801,8 +3848,8 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="68">
-        <v>-20</v>
+      <c r="F6" s="52">
+        <v>23</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>7</v>
@@ -3858,8 +3905,8 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="68">
-        <v>-20</v>
+      <c r="F7" s="52">
+        <v>23</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>7</v>
@@ -3915,8 +3962,8 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="68">
-        <v>-20</v>
+      <c r="F8" s="52">
+        <v>23</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>7</v>
@@ -3972,8 +4019,8 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="68">
-        <v>-20</v>
+      <c r="F9" s="52">
+        <v>23</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>7</v>
@@ -4029,8 +4076,8 @@
       <c r="E10" s="51">
         <v>99</v>
       </c>
-      <c r="F10" s="68">
-        <v>-20</v>
+      <c r="F10" s="52">
+        <v>23</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>7</v>
@@ -4086,8 +4133,8 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="68">
-        <v>-20</v>
+      <c r="F11" s="43">
+        <v>23</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>8</v>
@@ -4143,8 +4190,8 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="68">
-        <v>-20</v>
+      <c r="F12" s="43">
+        <v>23</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>8</v>
@@ -4200,8 +4247,8 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="68">
-        <v>-20</v>
+      <c r="F13" s="43">
+        <v>23</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>8</v>
@@ -4257,8 +4304,8 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="68">
-        <v>-20</v>
+      <c r="F14" s="43">
+        <v>23</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>8</v>
@@ -4314,8 +4361,8 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="68">
-        <v>-20</v>
+      <c r="F15" s="43">
+        <v>23</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>8</v>
@@ -4371,8 +4418,8 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="68">
-        <v>-20</v>
+      <c r="F16" s="43">
+        <v>23</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>8</v>
@@ -4428,8 +4475,8 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="68">
-        <v>-20</v>
+      <c r="F17" s="43">
+        <v>23</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>8</v>
@@ -4485,8 +4532,8 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="68">
-        <v>-20</v>
+      <c r="F18" s="43">
+        <v>23</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>8</v>
@@ -4542,8 +4589,8 @@
       <c r="E19" s="41">
         <v>99</v>
       </c>
-      <c r="F19" s="68">
-        <v>-20</v>
+      <c r="F19" s="43">
+        <v>23</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>8</v>
@@ -4599,8 +4646,8 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="68">
-        <v>-20</v>
+      <c r="F20" s="46">
+        <v>23</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>9</v>
@@ -4656,8 +4703,8 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="68">
-        <v>-20</v>
+      <c r="F21" s="46">
+        <v>23</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>9</v>
@@ -4713,8 +4760,8 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="68">
-        <v>-20</v>
+      <c r="F22" s="46">
+        <v>23</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>9</v>
@@ -4770,8 +4817,8 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="68">
-        <v>-20</v>
+      <c r="F23" s="46">
+        <v>23</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>9</v>
@@ -4827,8 +4874,8 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="68">
-        <v>-20</v>
+      <c r="F24" s="46">
+        <v>23</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>9</v>
@@ -4884,8 +4931,8 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="68">
-        <v>-20</v>
+      <c r="F25" s="46">
+        <v>23</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>9</v>
@@ -4941,8 +4988,8 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="68">
-        <v>-20</v>
+      <c r="F26" s="46">
+        <v>23</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>9</v>
@@ -4998,8 +5045,8 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="68">
-        <v>-20</v>
+      <c r="F27" s="46">
+        <v>23</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>9</v>
@@ -5055,8 +5102,8 @@
       <c r="E28" s="44">
         <v>99</v>
       </c>
-      <c r="F28" s="68">
-        <v>-20</v>
+      <c r="F28" s="46">
+        <v>23</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>9</v>
@@ -5108,7 +5155,7 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5117,7 +5164,7 @@
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="10.85546875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
@@ -5148,44 +5195,44 @@
       <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>5</v>
+      <c r="F1" s="49" t="s">
+        <v>10</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -5204,8 +5251,8 @@
       <c r="E2" s="64">
         <v>0</v>
       </c>
-      <c r="F2" s="68">
-        <v>-20</v>
+      <c r="F2" s="65">
+        <v>23</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>7</v>
@@ -5261,8 +5308,8 @@
       <c r="E3" s="64">
         <v>0</v>
       </c>
-      <c r="F3" s="68">
-        <v>-20</v>
+      <c r="F3" s="65">
+        <v>23</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>7</v>
@@ -5318,8 +5365,8 @@
       <c r="E4" s="64">
         <v>5</v>
       </c>
-      <c r="F4" s="68">
-        <v>-20</v>
+      <c r="F4" s="65">
+        <v>23</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>7</v>
@@ -5375,8 +5422,8 @@
       <c r="E5" s="64">
         <v>0</v>
       </c>
-      <c r="F5" s="68">
-        <v>-20</v>
+      <c r="F5" s="65">
+        <v>23</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>7</v>
@@ -5432,8 +5479,8 @@
       <c r="E6" s="64">
         <v>0</v>
       </c>
-      <c r="F6" s="68">
-        <v>-20</v>
+      <c r="F6" s="65">
+        <v>23</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>7</v>
@@ -5489,8 +5536,8 @@
       <c r="E7" s="64">
         <v>24</v>
       </c>
-      <c r="F7" s="68">
-        <v>-20</v>
+      <c r="F7" s="65">
+        <v>23</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>7</v>
@@ -5546,8 +5593,8 @@
       <c r="E8" s="64">
         <v>0</v>
       </c>
-      <c r="F8" s="68">
-        <v>-20</v>
+      <c r="F8" s="65">
+        <v>23</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>7</v>
@@ -5603,8 +5650,8 @@
       <c r="E9" s="64">
         <v>0</v>
       </c>
-      <c r="F9" s="68">
-        <v>-20</v>
+      <c r="F9" s="65">
+        <v>23</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>7</v>
@@ -5660,8 +5707,8 @@
       <c r="E10" s="64">
         <v>49</v>
       </c>
-      <c r="F10" s="68">
-        <v>-20</v>
+      <c r="F10" s="65">
+        <v>23</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>7</v>
@@ -5717,8 +5764,8 @@
       <c r="E11" s="64">
         <v>0</v>
       </c>
-      <c r="F11" s="68">
-        <v>-20</v>
+      <c r="F11" s="65">
+        <v>23</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>8</v>
@@ -5774,8 +5821,8 @@
       <c r="E12" s="64">
         <v>0</v>
       </c>
-      <c r="F12" s="68">
-        <v>-20</v>
+      <c r="F12" s="65">
+        <v>23</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>8</v>
@@ -5831,8 +5878,8 @@
       <c r="E13" s="64">
         <v>5</v>
       </c>
-      <c r="F13" s="68">
-        <v>-20</v>
+      <c r="F13" s="65">
+        <v>23</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>8</v>
@@ -5888,8 +5935,8 @@
       <c r="E14" s="64">
         <v>0</v>
       </c>
-      <c r="F14" s="68">
-        <v>-20</v>
+      <c r="F14" s="65">
+        <v>23</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>8</v>
@@ -5945,8 +5992,8 @@
       <c r="E15" s="64">
         <v>0</v>
       </c>
-      <c r="F15" s="68">
-        <v>-20</v>
+      <c r="F15" s="65">
+        <v>23</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>8</v>
@@ -6002,8 +6049,8 @@
       <c r="E16" s="64">
         <v>24</v>
       </c>
-      <c r="F16" s="68">
-        <v>-20</v>
+      <c r="F16" s="65">
+        <v>23</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>8</v>
@@ -6059,8 +6106,8 @@
       <c r="E17" s="64">
         <v>0</v>
       </c>
-      <c r="F17" s="68">
-        <v>-20</v>
+      <c r="F17" s="65">
+        <v>23</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>8</v>
@@ -6116,8 +6163,8 @@
       <c r="E18" s="64">
         <v>0</v>
       </c>
-      <c r="F18" s="68">
-        <v>-20</v>
+      <c r="F18" s="65">
+        <v>23</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>8</v>
@@ -6173,8 +6220,8 @@
       <c r="E19" s="64">
         <v>49</v>
       </c>
-      <c r="F19" s="68">
-        <v>-20</v>
+      <c r="F19" s="65">
+        <v>23</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>8</v>
@@ -6230,8 +6277,8 @@
       <c r="E20" s="64">
         <v>0</v>
       </c>
-      <c r="F20" s="68">
-        <v>-20</v>
+      <c r="F20" s="65">
+        <v>23</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>9</v>
@@ -6287,8 +6334,8 @@
       <c r="E21" s="64">
         <v>0</v>
       </c>
-      <c r="F21" s="68">
-        <v>-20</v>
+      <c r="F21" s="65">
+        <v>23</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>9</v>
@@ -6344,8 +6391,8 @@
       <c r="E22" s="64">
         <v>5</v>
       </c>
-      <c r="F22" s="68">
-        <v>-20</v>
+      <c r="F22" s="65">
+        <v>23</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>9</v>
@@ -6401,8 +6448,8 @@
       <c r="E23" s="64">
         <v>0</v>
       </c>
-      <c r="F23" s="68">
-        <v>-20</v>
+      <c r="F23" s="65">
+        <v>23</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>9</v>
@@ -6458,8 +6505,8 @@
       <c r="E24" s="64">
         <v>0</v>
       </c>
-      <c r="F24" s="68">
-        <v>-20</v>
+      <c r="F24" s="65">
+        <v>23</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>9</v>
@@ -6515,8 +6562,8 @@
       <c r="E25" s="64">
         <v>24</v>
       </c>
-      <c r="F25" s="68">
-        <v>-20</v>
+      <c r="F25" s="65">
+        <v>23</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>9</v>
@@ -6572,8 +6619,8 @@
       <c r="E26" s="64">
         <v>0</v>
       </c>
-      <c r="F26" s="68">
-        <v>-20</v>
+      <c r="F26" s="65">
+        <v>23</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>9</v>
@@ -6629,8 +6676,8 @@
       <c r="E27" s="64">
         <v>0</v>
       </c>
-      <c r="F27" s="68">
-        <v>-20</v>
+      <c r="F27" s="65">
+        <v>23</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>9</v>
@@ -6686,8 +6733,8 @@
       <c r="E28" s="64">
         <v>49</v>
       </c>
-      <c r="F28" s="68">
-        <v>-20</v>
+      <c r="F28" s="65">
+        <v>23</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>9</v>
@@ -6746,7 +6793,7 @@
     </row>
     <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6763,8 +6810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108741B-A8D0-4BB3-B12C-6B68B68001DF}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6773,12 +6820,12 @@
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
@@ -6804,44 +6851,44 @@
       <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -6860,8 +6907,8 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="68">
-        <v>-20</v>
+      <c r="F2" s="52">
+        <v>23</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>7</v>
@@ -6917,8 +6964,8 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="68">
-        <v>-20</v>
+      <c r="F3" s="52">
+        <v>23</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>7</v>
@@ -6974,8 +7021,8 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="68">
-        <v>-20</v>
+      <c r="F4" s="52">
+        <v>23</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>7</v>
@@ -7031,8 +7078,8 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="68">
-        <v>-20</v>
+      <c r="F5" s="52">
+        <v>23</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>7</v>
@@ -7088,8 +7135,8 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="68">
-        <v>-20</v>
+      <c r="F6" s="52">
+        <v>23</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>7</v>
@@ -7145,8 +7192,8 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="68">
-        <v>-20</v>
+      <c r="F7" s="52">
+        <v>23</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>7</v>
@@ -7202,8 +7249,8 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="68">
-        <v>-20</v>
+      <c r="F8" s="52">
+        <v>23</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>7</v>
@@ -7259,8 +7306,8 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="68">
-        <v>-20</v>
+      <c r="F9" s="52">
+        <v>23</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>7</v>
@@ -7316,8 +7363,8 @@
       <c r="E10" s="51">
         <v>49</v>
       </c>
-      <c r="F10" s="68">
-        <v>-20</v>
+      <c r="F10" s="52">
+        <v>23</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>7</v>
@@ -7373,8 +7420,8 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="68">
-        <v>-20</v>
+      <c r="F11" s="43">
+        <v>23</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>8</v>
@@ -7430,8 +7477,8 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="68">
-        <v>-20</v>
+      <c r="F12" s="43">
+        <v>23</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>8</v>
@@ -7487,8 +7534,8 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="68">
-        <v>-20</v>
+      <c r="F13" s="43">
+        <v>23</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>8</v>
@@ -7544,8 +7591,8 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="68">
-        <v>-20</v>
+      <c r="F14" s="43">
+        <v>23</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>8</v>
@@ -7601,8 +7648,8 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="68">
-        <v>-20</v>
+      <c r="F15" s="43">
+        <v>23</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>8</v>
@@ -7658,8 +7705,8 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="68">
-        <v>-20</v>
+      <c r="F16" s="43">
+        <v>23</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>8</v>
@@ -7715,8 +7762,8 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="68">
-        <v>-20</v>
+      <c r="F17" s="43">
+        <v>23</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>8</v>
@@ -7772,8 +7819,8 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="68">
-        <v>-20</v>
+      <c r="F18" s="43">
+        <v>23</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>8</v>
@@ -7829,8 +7876,8 @@
       <c r="E19" s="41">
         <v>49</v>
       </c>
-      <c r="F19" s="68">
-        <v>-20</v>
+      <c r="F19" s="43">
+        <v>23</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>8</v>
@@ -7886,8 +7933,8 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="68">
-        <v>-20</v>
+      <c r="F20" s="46">
+        <v>23</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>9</v>
@@ -7943,8 +7990,8 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="68">
-        <v>-20</v>
+      <c r="F21" s="46">
+        <v>23</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>9</v>
@@ -8000,8 +8047,8 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="68">
-        <v>-20</v>
+      <c r="F22" s="46">
+        <v>23</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>9</v>
@@ -8057,8 +8104,8 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="68">
-        <v>-20</v>
+      <c r="F23" s="46">
+        <v>23</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>9</v>
@@ -8114,8 +8161,8 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="68">
-        <v>-20</v>
+      <c r="F24" s="46">
+        <v>23</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>9</v>
@@ -8171,8 +8218,8 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="68">
-        <v>-20</v>
+      <c r="F25" s="46">
+        <v>23</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>9</v>
@@ -8228,8 +8275,8 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="68">
-        <v>-20</v>
+      <c r="F26" s="46">
+        <v>23</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>9</v>
@@ -8285,8 +8332,8 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="68">
-        <v>-20</v>
+      <c r="F27" s="46">
+        <v>23</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>9</v>
@@ -8342,8 +8389,8 @@
       <c r="E28" s="44">
         <v>49</v>
       </c>
-      <c r="F28" s="68">
-        <v>-20</v>
+      <c r="F28" s="46">
+        <v>23</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>9</v>
@@ -8394,8 +8441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDABD784-AD31-46F2-99DC-A4DD1B41AE1B}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8403,7 +8450,7 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="69" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
@@ -8434,44 +8481,44 @@
       <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -8490,8 +8537,8 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="68">
-        <v>-20</v>
+      <c r="F2" s="52">
+        <v>23</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>7</v>
@@ -8547,8 +8594,8 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="68">
-        <v>-20</v>
+      <c r="F3" s="52">
+        <v>23</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>7</v>
@@ -8604,8 +8651,8 @@
       <c r="E4" s="51">
         <v>24</v>
       </c>
-      <c r="F4" s="68">
-        <v>-20</v>
+      <c r="F4" s="52">
+        <v>23</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>7</v>
@@ -8661,8 +8708,8 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="68">
-        <v>-20</v>
+      <c r="F5" s="52">
+        <v>23</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>8</v>
@@ -8718,8 +8765,8 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="68">
-        <v>-20</v>
+      <c r="F6" s="52">
+        <v>23</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>8</v>
@@ -8775,8 +8822,8 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="68">
-        <v>-20</v>
+      <c r="F7" s="52">
+        <v>23</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>8</v>
@@ -8832,8 +8879,8 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="68">
-        <v>-20</v>
+      <c r="F8" s="52">
+        <v>23</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>9</v>
@@ -8889,8 +8936,8 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="68">
-        <v>-20</v>
+      <c r="F9" s="52">
+        <v>23</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>9</v>
@@ -8946,8 +8993,8 @@
       <c r="E10" s="51">
         <v>24</v>
       </c>
-      <c r="F10" s="68">
-        <v>-20</v>
+      <c r="F10" s="52">
+        <v>23</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>9</v>
@@ -9003,8 +9050,8 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="68">
-        <v>-20</v>
+      <c r="F11" s="52">
+        <v>23</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>8</v>
@@ -9060,8 +9107,8 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="68">
-        <v>-20</v>
+      <c r="F12" s="52">
+        <v>23</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>8</v>
@@ -9117,8 +9164,8 @@
       <c r="E13" s="41">
         <v>49</v>
       </c>
-      <c r="F13" s="68">
-        <v>-20</v>
+      <c r="F13" s="52">
+        <v>23</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>8</v>
@@ -9168,10 +9215,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9179,16 +9226,15 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -9204,47 +9250,53 @@
       <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="T1" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>66</v>
       </c>
@@ -9260,7 +9312,7 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <v>-20</v>
       </c>
       <c r="G2" s="39" t="s">
@@ -9278,8 +9330,9 @@
       <c r="K2" s="39">
         <v>1000000000</v>
       </c>
-      <c r="L2" s="2">
-        <v>1719199999.9999998</v>
+      <c r="L2" s="53">
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -9290,8 +9343,9 @@
       <c r="O2" s="54">
         <v>1000000000</v>
       </c>
-      <c r="P2" s="2">
-        <v>1702199999.9999998</v>
+      <c r="P2" s="53">
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -9301,10 +9355,14 @@
         <v>1710.6999999999998</v>
       </c>
       <c r="T2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -9318,7 +9376,7 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="70">
         <v>-20</v>
       </c>
       <c r="G3" s="39" t="s">
@@ -9337,8 +9395,8 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M3" s="39">
         <v>150000</v>
@@ -9350,8 +9408,8 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q3" s="39">
         <v>12750000000</v>
@@ -9360,11 +9418,8 @@
         <f t="shared" ref="R3:R28" si="0">C3-400</f>
         <v>1710.6999999999998</v>
       </c>
-      <c r="T3" s="2">
-        <v>1702199999.9999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -9378,7 +9433,7 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="70">
         <v>-20</v>
       </c>
       <c r="G4" s="39" t="s">
@@ -9397,8 +9452,8 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M4" s="39">
         <v>150000</v>
@@ -9410,8 +9465,8 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q4" s="39">
         <v>12750000000</v>
@@ -9420,11 +9475,8 @@
         <f t="shared" si="0"/>
         <v>1710.6999999999998</v>
       </c>
-      <c r="T4">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -9438,7 +9490,7 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="70">
         <v>-20</v>
       </c>
       <c r="G5" s="39" t="s">
@@ -9457,8 +9509,8 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M5" s="39">
         <v>150000</v>
@@ -9470,8 +9522,8 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="58">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q5" s="39">
         <v>12750000000</v>
@@ -9480,11 +9532,8 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-      <c r="T5" s="2">
-        <v>1719199999.9999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -9498,7 +9547,7 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="70">
         <v>-20</v>
       </c>
       <c r="G6" s="39" t="s">
@@ -9517,8 +9566,8 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M6" s="39">
         <v>150000</v>
@@ -9530,8 +9579,8 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="58">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q6" s="39">
         <v>12750000000</v>
@@ -9540,12 +9589,8 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-      <c r="T6">
-        <f>T4/2</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -9559,7 +9604,7 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="70">
         <v>-20</v>
       </c>
       <c r="G7" s="39" t="s">
@@ -9578,8 +9623,8 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M7" s="39">
         <v>150000</v>
@@ -9591,8 +9636,8 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="58">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q7" s="39">
         <v>12750000000</v>
@@ -9602,7 +9647,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -9616,7 +9661,7 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="70">
         <v>-20</v>
       </c>
       <c r="G8" s="39" t="s">
@@ -9635,8 +9680,8 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1755000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -9648,8 +9693,8 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1685000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
@@ -9659,7 +9704,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -9673,7 +9718,7 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="70">
         <v>-20</v>
       </c>
       <c r="G9" s="39" t="s">
@@ -9692,8 +9737,8 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1755000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -9705,8 +9750,8 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1685000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
@@ -9716,7 +9761,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -9730,7 +9775,7 @@
       <c r="E10" s="51">
         <v>99</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="70">
         <v>-20</v>
       </c>
       <c r="G10" s="39" t="s">
@@ -9749,8 +9794,8 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1755000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -9762,8 +9807,8 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1685000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
@@ -9773,7 +9818,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -9787,7 +9832,7 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="70">
         <v>-20</v>
       </c>
       <c r="G11" s="42" t="s">
@@ -9806,8 +9851,8 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1748500000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1749000000</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -9819,8 +9864,8 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1741500000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1741000000</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -9830,7 +9875,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -9844,7 +9889,7 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="70">
         <v>-20</v>
       </c>
       <c r="G12" s="42" t="s">
@@ -9863,8 +9908,8 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1748500000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1749000000</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -9876,8 +9921,8 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1741500000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1741000000</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -9887,7 +9932,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -9901,7 +9946,7 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="70">
         <v>-20</v>
       </c>
       <c r="G13" s="42" t="s">
@@ -9920,8 +9965,8 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1748500000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1749000000</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -9933,8 +9978,8 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1741500000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1741000000</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -9944,7 +9989,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -9958,7 +10003,7 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="70">
         <v>-20</v>
       </c>
       <c r="G14" s="42" t="s">
@@ -9977,8 +10022,8 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="53">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1758000000</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -9990,8 +10035,8 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="58">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1732000000</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -10001,7 +10046,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -10015,7 +10060,7 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="70">
         <v>-20</v>
       </c>
       <c r="G15" s="42" t="s">
@@ -10034,8 +10079,8 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="53">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1758000000</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -10047,8 +10092,8 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="58">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1732000000</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -10058,7 +10103,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -10072,7 +10117,7 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="70">
         <v>-20</v>
       </c>
       <c r="G16" s="42" t="s">
@@ -10091,8 +10136,8 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="53">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1758000000</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -10104,8 +10149,8 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="58">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1732000000</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -10129,7 +10174,7 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="70">
         <v>-20</v>
       </c>
       <c r="G17" s="42" t="s">
@@ -10148,8 +10193,8 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="53">
-        <f>(R17+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1780000000</v>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -10161,8 +10206,8 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1710000000</v>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
@@ -10186,7 +10231,7 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="70">
         <v>-20</v>
       </c>
       <c r="G18" s="42" t="s">
@@ -10205,8 +10250,8 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="53">
-        <f>(R18+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1780000000</v>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -10218,8 +10263,8 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1710000000</v>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
@@ -10243,7 +10288,7 @@
       <c r="E19" s="41">
         <v>99</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="70">
         <v>-20</v>
       </c>
       <c r="G19" s="42" t="s">
@@ -10262,8 +10307,8 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="53">
-        <f>(R19+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1780000000</v>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -10275,8 +10320,8 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1710000000</v>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
@@ -10300,7 +10345,7 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="70">
         <v>-20</v>
       </c>
       <c r="G20" s="45" t="s">
@@ -10319,8 +10364,8 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="53">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1782800000.0000002</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1783300000.0000002</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -10332,8 +10377,8 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1775800000.0000002</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1775300000.0000002</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
@@ -10357,7 +10402,7 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="70">
         <v>-20</v>
       </c>
       <c r="G21" s="45" t="s">
@@ -10376,8 +10421,8 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="53">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1782800000.0000002</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1783300000.0000002</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -10389,8 +10434,8 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1775800000.0000002</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1775300000.0000002</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
@@ -10414,7 +10459,7 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="70">
         <v>-20</v>
       </c>
       <c r="G22" s="45" t="s">
@@ -10433,8 +10478,8 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="53">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1782800000.0000002</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1783300000.0000002</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -10446,8 +10491,8 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1775800000.0000002</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1775300000.0000002</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
@@ -10471,7 +10516,7 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="70">
         <v>-20</v>
       </c>
       <c r="G23" s="45" t="s">
@@ -10490,8 +10535,8 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="53">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1790000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1790500000</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -10503,8 +10548,8 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="58">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1764500000</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
@@ -10528,7 +10573,7 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="70">
         <v>-20</v>
       </c>
       <c r="G24" s="45" t="s">
@@ -10547,8 +10592,8 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="53">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1790000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1790500000</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -10560,8 +10605,8 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="58">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1764500000</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
@@ -10585,7 +10630,7 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="70">
         <v>-20</v>
       </c>
       <c r="G25" s="45" t="s">
@@ -10604,8 +10649,8 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="53">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1790000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1790500000</v>
       </c>
       <c r="M25" s="39">
         <v>150000</v>
@@ -10617,8 +10662,8 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="58">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1764500000</v>
       </c>
       <c r="Q25" s="39">
         <v>12750000000</v>
@@ -10642,7 +10687,7 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="70">
         <v>-20</v>
       </c>
       <c r="G26" s="45" t="s">
@@ -10661,8 +10706,8 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="53">
-        <f>(R26+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1805000000</v>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1805500000</v>
       </c>
       <c r="M26" s="39">
         <v>150000</v>
@@ -10674,8 +10719,8 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1735000000</v>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1734500000</v>
       </c>
       <c r="Q26" s="39">
         <v>12750000000</v>
@@ -10699,7 +10744,7 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="70">
         <v>-20</v>
       </c>
       <c r="G27" s="45" t="s">
@@ -10718,8 +10763,8 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="53">
-        <f>(R27+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1805000000</v>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1805500000</v>
       </c>
       <c r="M27" s="39">
         <v>150000</v>
@@ -10731,8 +10776,8 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1735000000</v>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1734500000</v>
       </c>
       <c r="Q27" s="39">
         <v>12750000000</v>
@@ -10756,7 +10801,7 @@
       <c r="E28" s="44">
         <v>99</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="70">
         <v>-20</v>
       </c>
       <c r="G28" s="45" t="s">
@@ -10775,8 +10820,8 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="53">
-        <f>(R28+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1805000000</v>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1805500000</v>
       </c>
       <c r="M28" s="39">
         <v>150000</v>
@@ -10788,8 +10833,8 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1735000000</v>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1734500000</v>
       </c>
       <c r="Q28" s="39">
         <v>12750000000</v>
@@ -10821,7 +10866,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -11203,7 +11248,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -11393,7 +11438,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -11520,7 +11565,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -11647,7 +11692,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -11762,13 +11807,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11779,7 +11824,7 @@
         <v>3.5</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11790,7 +11835,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11801,7 +11846,7 @@
         <v>12.5</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11812,7 +11857,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11823,7 +11868,7 @@
         <v>27.5</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11836,78 +11881,78 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12014,91 +12059,91 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="35" t="e">
         <f>Band5!#REF!</f>
@@ -12111,7 +12156,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="36" t="e">
         <f>Band5!#REF!</f>
@@ -12130,14 +12175,14 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="36" t="e">
         <f>Band5!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" s="32">
         <v>1000</v>

--- a/Band2MinPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MinPowerInput1_FrequencySweepRanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hclo365-my.sharepoint.com/personal/aayush_jain_hcl_com/Documents/Facebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{29D0E568-EE65-415B-89C9-359224AD92FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9E78942-3682-4B82-9F5A-C1F40CDDCA2D}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{29D0E568-EE65-415B-89C9-359224AD92FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{3C376A60-873D-4805-BB3B-0FB2E91BD418}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="91">
   <si>
     <t>Band</t>
   </si>
@@ -525,7 +525,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -593,10 +593,11 @@
     <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -914,11 +915,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F21EF5-0615-4121-83E8-517FC8180B1A}">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -933,17 +932,18 @@
     <col min="11" max="11" width="15.28515625" style="38" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="15.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="19.28515625" style="38" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="38"/>
-    <col min="21" max="21" width="24.28515625" style="38" customWidth="1"/>
-    <col min="22" max="22" width="27.5703125" style="38" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" style="38" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="67.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="38"/>
+    <col min="17" max="18" width="19.28515625" style="38" customWidth="1"/>
+    <col min="19" max="21" width="19.28515625" style="71" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="38"/>
+    <col min="23" max="23" width="24.28515625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="27.5703125" style="38" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" style="38" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="67.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -998,45 +998,51 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="U1" s="38" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AI1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AK1" s="38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>2</v>
       </c>
@@ -1071,8 +1077,8 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1854200000</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1854700000</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -1084,8 +1090,8 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1847200000</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1846700000</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -1094,42 +1100,49 @@
         <f>C2-80</f>
         <v>1850.7</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="U2" s="38">
-        <v>9000</v>
-      </c>
-      <c r="V2" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="Z2" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="38" t="s">
-        <v>74</v>
+      <c r="S2" s="70"/>
+      <c r="T2">
+        <v>1000000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>500000</v>
+      </c>
+      <c r="W2" s="38">
+        <v>9000</v>
+      </c>
+      <c r="X2" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="AB2" s="38">
+        <v>1</v>
       </c>
       <c r="AD2" s="38" t="s">
         <v>74</v>
       </c>
       <c r="AE2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AH2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AI2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="38" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK2" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -1162,8 +1175,8 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1854200000</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1854700000</v>
       </c>
       <c r="M3" s="39">
         <v>150000</v>
@@ -1175,8 +1188,8 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1847200000</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1846700000</v>
       </c>
       <c r="Q3" s="39">
         <v>12750000000</v>
@@ -1185,22 +1198,18 @@
         <f t="shared" ref="R3:R28" si="0">C3-80</f>
         <v>1850.7</v>
       </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="38" t="s">
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="V3" s="38" t="s">
+      <c r="W3" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="X3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB3" s="38" t="s">
         <v>74</v>
       </c>
@@ -1211,22 +1220,28 @@
         <v>74</v>
       </c>
       <c r="AE3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF3" s="38" t="s">
+      <c r="AH3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG3" s="38" t="s">
+      <c r="AI3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="38" t="s">
+      <c r="AJ3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI3" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK3" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -1259,8 +1274,8 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1854200000</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1854700000</v>
       </c>
       <c r="M4" s="39">
         <v>150000</v>
@@ -1272,8 +1287,8 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1847200000</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1846700000</v>
       </c>
       <c r="Q4" s="39">
         <v>12750000000</v>
@@ -1282,25 +1297,21 @@
         <f t="shared" si="0"/>
         <v>1850.7</v>
       </c>
-      <c r="S4" s="68"/>
-      <c r="T4" s="38" t="s">
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="38">
-        <v>1000000000</v>
-      </c>
-      <c r="V4" s="38" t="s">
+      <c r="W4" s="38">
+        <v>1000000000</v>
+      </c>
+      <c r="X4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="Y4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA4" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB4" s="38" t="s">
         <v>74</v>
       </c>
@@ -1311,22 +1322,28 @@
         <v>74</v>
       </c>
       <c r="AE4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AH4" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG4" s="38" t="s">
+      <c r="AI4" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH4" s="38" t="s">
+      <c r="AJ4" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK4" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -1359,8 +1376,8 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1865000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1865500000</v>
       </c>
       <c r="M5" s="39">
         <v>150000</v>
@@ -1372,8 +1389,8 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1840000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1840500000</v>
       </c>
       <c r="Q5" s="39">
         <v>12750000000</v>
@@ -1382,24 +1399,20 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="38" t="s">
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="38" t="s">
         <v>45</v>
-      </c>
-      <c r="U5" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="38">
-        <v>12750000000</v>
       </c>
       <c r="W5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="38" t="s">
-        <v>74</v>
+      <c r="X5" s="38">
+        <v>12750000000</v>
+      </c>
+      <c r="Y5" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="AB5" s="38" t="s">
         <v>74</v>
@@ -1411,22 +1424,28 @@
         <v>74</v>
       </c>
       <c r="AE5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF5" s="38" t="s">
+      <c r="AH5" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG5" s="38" t="s">
+      <c r="AI5" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH5" s="38" t="s">
+      <c r="AJ5" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI5" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK5" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -1459,8 +1478,8 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1865000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1865500000</v>
       </c>
       <c r="M6" s="39">
         <v>150000</v>
@@ -1472,8 +1491,8 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1840000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1840500000</v>
       </c>
       <c r="Q6" s="39">
         <v>12750000000</v>
@@ -1482,13 +1501,9 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S6" s="68"/>
-      <c r="Z6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA6" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
       <c r="AB6" s="38" t="s">
         <v>74</v>
       </c>
@@ -1499,22 +1514,28 @@
         <v>74</v>
       </c>
       <c r="AE6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF6" s="38" t="s">
+      <c r="AH6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG6" s="38" t="s">
+      <c r="AI6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH6" s="38" t="s">
+      <c r="AJ6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI6" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK6" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -1547,8 +1568,8 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1865000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1865500000</v>
       </c>
       <c r="M7" s="39">
         <v>150000</v>
@@ -1560,8 +1581,8 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1840000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1840500000</v>
       </c>
       <c r="Q7" s="39">
         <v>12750000000</v>
@@ -1570,13 +1591,9 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="Z7" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
       <c r="AB7" s="38" t="s">
         <v>74</v>
       </c>
@@ -1587,22 +1604,28 @@
         <v>74</v>
       </c>
       <c r="AE7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF7" s="38" t="s">
+      <c r="AH7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG7" s="38" t="s">
+      <c r="AI7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH7" s="38" t="s">
+      <c r="AJ7" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI7" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK7" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -1635,8 +1658,8 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1895000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -1648,8 +1671,8 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1825000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1824500000</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
@@ -1658,23 +1681,19 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S8" s="68"/>
-      <c r="U8" s="38" t="s">
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="W8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="38">
+      <c r="Y8" s="38">
         <v>1927200000</v>
       </c>
-      <c r="X8" s="38">
-        <f>W8-X10</f>
+      <c r="Z8" s="38">
+        <f>Y8-Z10</f>
         <v>1927150000</v>
       </c>
-      <c r="Z8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA8" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB8" s="38" t="s">
         <v>74</v>
       </c>
@@ -1685,22 +1704,28 @@
         <v>74</v>
       </c>
       <c r="AE8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="38" t="s">
+      <c r="AH8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG8" s="38" t="s">
+      <c r="AI8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH8" s="38" t="s">
+      <c r="AJ8" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI8" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK8" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -1733,8 +1758,8 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1895000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -1746,8 +1771,8 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1825000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1824500000</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
@@ -1756,16 +1781,12 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S9" s="68"/>
-      <c r="U9" s="38" t="s">
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="W9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB9" s="38" t="s">
         <v>74</v>
       </c>
@@ -1776,22 +1797,28 @@
         <v>74</v>
       </c>
       <c r="AE9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF9" s="38" t="s">
+      <c r="AH9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="38" t="s">
+      <c r="AI9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH9" s="38" t="s">
+      <c r="AJ9" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI9" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK9" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -1824,8 +1851,8 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1895000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -1837,8 +1864,8 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1825000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1824500000</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
@@ -1847,24 +1874,20 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S10" s="68"/>
-      <c r="U10" s="40" t="e" cm="1">
-        <f t="array" ref="U10">P</f>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="W10" s="40" t="e" cm="1">
+        <f t="array" ref="W10">P</f>
         <v>#NAME?</v>
       </c>
-      <c r="W10" s="38">
+      <c r="Y10" s="38">
         <v>100000</v>
       </c>
-      <c r="X10" s="38">
-        <f>W10/2</f>
+      <c r="Z10" s="38">
+        <f>Y10/2</f>
         <v>50000</v>
       </c>
-      <c r="Z10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA10" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB10" s="38" t="s">
         <v>74</v>
       </c>
@@ -1875,22 +1898,28 @@
         <v>74</v>
       </c>
       <c r="AE10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF10" s="38" t="s">
+      <c r="AH10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG10" s="38" t="s">
+      <c r="AI10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH10" s="38" t="s">
+      <c r="AJ10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI10" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK10" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -1923,8 +1952,8 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1883500000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1884000000</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -1936,8 +1965,8 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1876500000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1876000000</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -1946,13 +1975,9 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S11" s="68"/>
-      <c r="Z11" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA11" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
       <c r="AB11" s="38" t="s">
         <v>74</v>
       </c>
@@ -1963,22 +1988,28 @@
         <v>74</v>
       </c>
       <c r="AE11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF11" s="38" t="s">
+      <c r="AH11" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG11" s="38" t="s">
+      <c r="AI11" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH11" s="38" t="s">
+      <c r="AJ11" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI11" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK11" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -2011,8 +2042,8 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1883500000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1884000000</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -2024,8 +2055,8 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1876500000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1876000000</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -2034,13 +2065,9 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S12" s="68"/>
-      <c r="Z12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA12" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
       <c r="AB12" s="38" t="s">
         <v>74</v>
       </c>
@@ -2051,22 +2078,28 @@
         <v>74</v>
       </c>
       <c r="AE12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG12" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF12" s="38" t="s">
+      <c r="AH12" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG12" s="38" t="s">
+      <c r="AI12" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH12" s="38" t="s">
+      <c r="AJ12" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI12" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK12" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -2099,8 +2132,8 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1883500000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1884000000</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -2112,8 +2145,8 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1876500000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1876000000</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -2122,13 +2155,9 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S13" s="68"/>
-      <c r="Z13" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA13" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
       <c r="AB13" s="38" t="s">
         <v>74</v>
       </c>
@@ -2139,22 +2168,28 @@
         <v>74</v>
       </c>
       <c r="AE13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF13" s="38" t="s">
+      <c r="AH13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="38" t="s">
+      <c r="AI13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH13" s="38" t="s">
+      <c r="AJ13" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI13" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK13" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -2187,8 +2222,8 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="53">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1892500000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1893000000</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -2200,8 +2235,8 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="53">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1867500000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1868000000</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -2210,13 +2245,9 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S14" s="68"/>
-      <c r="Z14" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA14" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
       <c r="AB14" s="38" t="s">
         <v>74</v>
       </c>
@@ -2227,22 +2258,28 @@
         <v>74</v>
       </c>
       <c r="AE14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF14" s="38" t="s">
+      <c r="AH14" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG14" s="38" t="s">
+      <c r="AI14" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH14" s="38" t="s">
+      <c r="AJ14" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI14" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK14" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -2275,8 +2312,8 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="53">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1892500000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1893000000</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -2288,8 +2325,8 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="53">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1867500000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1868000000</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -2298,16 +2335,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S15" s="68"/>
-      <c r="W15" s="38" t="s">
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="Y15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="Z15" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA15" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB15" s="38" t="s">
         <v>74</v>
       </c>
@@ -2318,22 +2351,28 @@
         <v>74</v>
       </c>
       <c r="AE15" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF15" s="38" t="s">
+      <c r="AH15" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG15" s="38" t="s">
+      <c r="AI15" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH15" s="38" t="s">
+      <c r="AJ15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI15" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK15" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -2366,8 +2405,8 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="53">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1892500000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1893000000</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -2379,8 +2418,8 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="53">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1867500000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1868000000</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -2389,16 +2428,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S16" s="68"/>
-      <c r="Y16" s="38" t="s">
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="AA16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Z16" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA16" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB16" s="38" t="s">
         <v>74</v>
       </c>
@@ -2409,22 +2444,28 @@
         <v>74</v>
       </c>
       <c r="AE16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG16" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF16" s="38" t="s">
+      <c r="AH16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG16" s="38" t="s">
+      <c r="AI16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH16" s="38" t="s">
+      <c r="AJ16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI16" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK16" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>20</v>
@@ -2457,8 +2498,8 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="53">
-        <f>(R17+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1915000000</v>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1915500000</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -2470,8 +2511,8 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1845000000</v>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1844500000</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
@@ -2480,16 +2521,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S17" s="68"/>
-      <c r="Y17" s="38" t="s">
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="AA17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Z17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA17" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB17" s="38" t="s">
         <v>74</v>
       </c>
@@ -2500,22 +2537,28 @@
         <v>74</v>
       </c>
       <c r="AE17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF17" s="38" t="s">
+      <c r="AH17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG17" s="38" t="s">
+      <c r="AI17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH17" s="38" t="s">
+      <c r="AJ17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI17" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK17" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>20</v>
@@ -2548,8 +2591,8 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="53">
-        <f>(R18+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1915000000</v>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1915500000</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -2561,8 +2604,8 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1845000000</v>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1844500000</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
@@ -2571,16 +2614,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S18" s="68"/>
-      <c r="Y18" s="38" t="s">
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="AA18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="Z18" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA18" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB18" s="38" t="s">
         <v>74</v>
       </c>
@@ -2591,22 +2630,28 @@
         <v>74</v>
       </c>
       <c r="AE18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" s="38" t="s">
+      <c r="AH18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG18" s="38" t="s">
+      <c r="AI18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH18" s="38" t="s">
+      <c r="AJ18" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI18" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK18" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>20</v>
@@ -2639,8 +2684,8 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="53">
-        <f>(R19+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1915000000</v>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1915500000</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -2652,8 +2697,8 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1845000000</v>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1844500000</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
@@ -2662,16 +2707,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S19" s="68"/>
-      <c r="Y19" s="38" t="s">
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="AA19" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="Z19" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA19" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB19" s="38" t="s">
         <v>74</v>
       </c>
@@ -2682,22 +2723,28 @@
         <v>74</v>
       </c>
       <c r="AE19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG19" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF19" s="38" t="s">
+      <c r="AH19" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG19" s="38" t="s">
+      <c r="AI19" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH19" s="38" t="s">
+      <c r="AJ19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI19" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK19" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -2730,8 +2777,8 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="53">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1912800000</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1913300000</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -2743,8 +2790,8 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1905800000</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1905300000</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
@@ -2753,16 +2800,12 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S20" s="68"/>
-      <c r="W20" s="38" t="s">
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="Y20" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="Z20" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA20" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB20" s="38" t="s">
         <v>74</v>
       </c>
@@ -2773,22 +2816,28 @@
         <v>74</v>
       </c>
       <c r="AE20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG20" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF20" s="38" t="s">
+      <c r="AH20" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG20" s="38" t="s">
+      <c r="AI20" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH20" s="38" t="s">
+      <c r="AJ20" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI20" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK20" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -2821,8 +2870,8 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="53">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1912800000</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1913300000</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -2834,8 +2883,8 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1905800000</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1905300000</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
@@ -2844,16 +2893,12 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S21" s="68"/>
-      <c r="Y21" s="38" t="s">
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="AA21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA21" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB21" s="38" t="s">
         <v>74</v>
       </c>
@@ -2864,22 +2909,28 @@
         <v>74</v>
       </c>
       <c r="AE21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG21" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF21" s="38" t="s">
+      <c r="AH21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG21" s="38" t="s">
+      <c r="AI21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH21" s="38" t="s">
+      <c r="AJ21" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI21" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK21" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -2912,8 +2963,8 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="53">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1912800000</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1913300000</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -2925,8 +2976,8 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1905800000</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1905300000</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
@@ -2935,16 +2986,12 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S22" s="68"/>
-      <c r="Y22" s="38" t="s">
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="AA22" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="Z22" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA22" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB22" s="38" t="s">
         <v>74</v>
       </c>
@@ -2955,22 +3002,28 @@
         <v>74</v>
       </c>
       <c r="AE22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF22" s="38" t="s">
+      <c r="AH22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG22" s="38" t="s">
+      <c r="AI22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH22" s="38" t="s">
+      <c r="AJ22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI22" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK22" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -3003,8 +3056,8 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="53">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1920000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1920500000</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -3016,8 +3069,8 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="53">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1895000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
@@ -3026,16 +3079,12 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S23" s="68"/>
-      <c r="Y23" s="38" t="s">
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="AA23" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="Z23" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA23" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB23" s="38" t="s">
         <v>74</v>
       </c>
@@ -3046,22 +3095,28 @@
         <v>74</v>
       </c>
       <c r="AE23" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG23" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF23" s="38" t="s">
+      <c r="AH23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG23" s="38" t="s">
+      <c r="AI23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH23" s="38" t="s">
+      <c r="AJ23" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI23" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK23" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -3094,8 +3149,8 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="53">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1920000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1920500000</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -3107,8 +3162,8 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="53">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1895000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
@@ -3117,16 +3172,12 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S24" s="68"/>
-      <c r="Y24" s="38" t="s">
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="AA24" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="Z24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA24" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB24" s="38" t="s">
         <v>74</v>
       </c>
@@ -3137,22 +3188,28 @@
         <v>74</v>
       </c>
       <c r="AE24" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG24" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF24" s="38" t="s">
+      <c r="AH24" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG24" s="38" t="s">
+      <c r="AI24" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH24" s="38" t="s">
+      <c r="AJ24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI24" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK24" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -3185,8 +3242,8 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="53">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1920000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1920500000</v>
       </c>
       <c r="M25" s="39">
         <v>150000</v>
@@ -3198,8 +3255,8 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="53">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1895000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="Q25" s="39">
         <v>12750000000</v>
@@ -3208,13 +3265,9 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S25" s="68"/>
-      <c r="Z25" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA25" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
       <c r="AB25" s="38" t="s">
         <v>74</v>
       </c>
@@ -3225,22 +3278,28 @@
         <v>74</v>
       </c>
       <c r="AE25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF25" s="38" t="s">
+      <c r="AH25" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG25" s="38" t="s">
+      <c r="AI25" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH25" s="38" t="s">
+      <c r="AJ25" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI25" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK25" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>20</v>
@@ -3273,8 +3332,8 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="53">
-        <f>(R26+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1935000000</v>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1935500000</v>
       </c>
       <c r="M26" s="39">
         <v>150000</v>
@@ -3286,8 +3345,8 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1865000000</v>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1864500000</v>
       </c>
       <c r="Q26" s="39">
         <v>12750000000</v>
@@ -3296,16 +3355,12 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S26" s="68"/>
-      <c r="Y26" s="38" t="s">
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="AA26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Z26" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA26" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB26" s="38" t="s">
         <v>74</v>
       </c>
@@ -3316,22 +3371,28 @@
         <v>74</v>
       </c>
       <c r="AE26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF26" s="38" t="s">
+      <c r="AH26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG26" s="38" t="s">
+      <c r="AI26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH26" s="38" t="s">
+      <c r="AJ26" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI26" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK26" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>20</v>
@@ -3364,8 +3425,8 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="53">
-        <f>(R27+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1935000000</v>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1935500000</v>
       </c>
       <c r="M27" s="39">
         <v>150000</v>
@@ -3377,8 +3438,8 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1865000000</v>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1864500000</v>
       </c>
       <c r="Q27" s="39">
         <v>12750000000</v>
@@ -3387,16 +3448,12 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S27" s="68"/>
-      <c r="Y27" s="38" t="s">
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="AA27" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Z27" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA27" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB27" s="38" t="s">
         <v>74</v>
       </c>
@@ -3407,22 +3464,28 @@
         <v>74</v>
       </c>
       <c r="AE27" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG27" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF27" s="38" t="s">
+      <c r="AH27" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG27" s="38" t="s">
+      <c r="AI27" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH27" s="38" t="s">
+      <c r="AJ27" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI27" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK27" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>20</v>
@@ -3455,8 +3518,8 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="53">
-        <f>(R28+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1935000000</v>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1935500000</v>
       </c>
       <c r="M28" s="39">
         <v>150000</v>
@@ -3468,8 +3531,8 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1865000000</v>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1864500000</v>
       </c>
       <c r="Q28" s="39">
         <v>12750000000</v>
@@ -3478,13 +3541,9 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S28" s="68"/>
-      <c r="Z28" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA28" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
       <c r="AB28" s="38" t="s">
         <v>74</v>
       </c>
@@ -3495,18 +3554,24 @@
         <v>74</v>
       </c>
       <c r="AE28" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF28" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG28" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AF28" s="38" t="s">
+      <c r="AH28" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG28" s="38" t="s">
+      <c r="AI28" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AH28" s="38" t="s">
+      <c r="AJ28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AI28" s="38" t="s">
+      <c r="AK28" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3522,10 +3587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F8828-1D8C-4AAA-81FD-7AC3397EB1C9}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,7 +3613,7 @@
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3603,8 +3668,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>4</v>
       </c>
@@ -3639,8 +3710,8 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="56">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -3652,8 +3723,8 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -3662,8 +3733,15 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>1000000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -3696,8 +3774,8 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="56">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M3" s="39">
         <v>150000</v>
@@ -3709,8 +3787,8 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q3" s="39">
         <v>12750000000</v>
@@ -3720,7 +3798,7 @@
         <v>1710.6999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -3753,8 +3831,8 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="56">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M4" s="39">
         <v>150000</v>
@@ -3766,8 +3844,8 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q4" s="39">
         <v>12750000000</v>
@@ -3777,7 +3855,7 @@
         <v>1710.6999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -3810,8 +3888,8 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="56">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M5" s="39">
         <v>150000</v>
@@ -3823,8 +3901,8 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q5" s="39">
         <v>12750000000</v>
@@ -3834,7 +3912,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -3867,8 +3945,8 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="56">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M6" s="39">
         <v>150000</v>
@@ -3880,8 +3958,8 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q6" s="39">
         <v>12750000000</v>
@@ -3891,7 +3969,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -3924,8 +4002,8 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="56">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M7" s="39">
         <v>150000</v>
@@ -3937,8 +4015,8 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q7" s="39">
         <v>12750000000</v>
@@ -3948,7 +4026,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -3981,8 +4059,8 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="56">
-        <f>(R8+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -3994,8 +4072,8 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1707500000</v>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
@@ -4005,7 +4083,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -4038,8 +4116,8 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="56">
-        <f>(R9+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -4051,8 +4129,8 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1707500000</v>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
@@ -4062,7 +4140,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -4095,8 +4173,8 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="56">
-        <f>(R10+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -4108,8 +4186,8 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1707500000</v>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
@@ -4119,7 +4197,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -4152,8 +4230,8 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="56">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1736000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -4165,8 +4243,8 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1729000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -4176,7 +4254,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -4209,8 +4287,8 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="56">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1736000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -4222,8 +4300,8 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1729000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -4233,7 +4311,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -4266,8 +4344,8 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="56">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1736000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -4279,8 +4357,8 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1729000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -4290,7 +4368,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -4323,8 +4401,8 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="56">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -4336,8 +4414,8 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="53">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -4347,7 +4425,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -4380,8 +4458,8 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="56">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -4393,8 +4471,8 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="53">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -4404,7 +4482,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -4437,8 +4515,8 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="56">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -4450,8 +4528,8 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="53">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -4494,8 +4572,8 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="56">
-        <f>(R17+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -4507,8 +4585,8 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
@@ -4551,8 +4629,8 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="56">
-        <f>(R18+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -4564,8 +4642,8 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
@@ -4608,8 +4686,8 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="56">
-        <f>(R19+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -4621,8 +4699,8 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
@@ -4665,8 +4743,8 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="56">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1757800000.0000002</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -4678,8 +4756,8 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1750800000.0000002</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
@@ -4722,8 +4800,8 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="56">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1757800000.0000002</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -4735,8 +4813,8 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1750800000.0000002</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
@@ -4779,8 +4857,8 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="56">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1757800000.0000002</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -4792,8 +4870,8 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1750800000.0000002</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
@@ -4836,8 +4914,8 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="56">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1765500000</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -4849,8 +4927,8 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="53">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1740000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1739500000</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
@@ -4893,8 +4971,8 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="56">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1765500000</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -4906,8 +4984,8 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="53">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1740000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1739500000</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
@@ -4950,8 +5028,8 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="56">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1765500000</v>
       </c>
       <c r="M25" s="39">
         <v>150000</v>
@@ -4963,8 +5041,8 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="53">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1740000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1739500000</v>
       </c>
       <c r="Q25" s="39">
         <v>12750000000</v>
@@ -5007,8 +5085,8 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="56">
-        <f>(R26+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M26" s="39">
         <v>150000</v>
@@ -5020,8 +5098,8 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q26" s="39">
         <v>12750000000</v>
@@ -5064,8 +5142,8 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="56">
-        <f>(R27+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M27" s="39">
         <v>150000</v>
@@ -5077,8 +5155,8 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q27" s="39">
         <v>12750000000</v>
@@ -5121,8 +5199,8 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="56">
-        <f>(R28+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M28" s="39">
         <v>150000</v>
@@ -5134,8 +5212,8 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q28" s="39">
         <v>12750000000</v>
@@ -5152,10 +5230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8596D56-7C71-4D72-A666-9CAEA981CBE7}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,7 +5257,7 @@
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5234,8 +5312,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>5</v>
       </c>
@@ -5267,8 +5351,8 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>828200000</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>828250000</v>
       </c>
       <c r="L2" s="39">
         <v>1000000000</v>
@@ -5280,8 +5364,8 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>821200000</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>821150000</v>
       </c>
       <c r="P2" s="39">
         <v>1000000000</v>
@@ -5293,8 +5377,15 @@
         <f>(C2-45)</f>
         <v>824.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>100000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="65">
         <v>1.4</v>
@@ -5324,8 +5415,8 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>828200000</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>828250000</v>
       </c>
       <c r="L3" s="39">
         <v>1000000000</v>
@@ -5337,8 +5428,8 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>821200000</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>821150000</v>
       </c>
       <c r="P3" s="39">
         <v>1000000000</v>
@@ -5351,7 +5442,7 @@
         <v>824.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="65">
         <v>1.4</v>
@@ -5381,8 +5472,8 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>828200000</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>828250000</v>
       </c>
       <c r="L4" s="39">
         <v>1000000000</v>
@@ -5394,8 +5485,8 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>821200000</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>821150000</v>
       </c>
       <c r="P4" s="39">
         <v>1000000000</v>
@@ -5408,7 +5499,7 @@
         <v>824.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="65">
         <v>5</v>
@@ -5438,8 +5529,8 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>839000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>839050000</v>
       </c>
       <c r="L5" s="39">
         <v>1000000000</v>
@@ -5451,8 +5542,8 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>814000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>813950000</v>
       </c>
       <c r="P5" s="39">
         <v>1000000000</v>
@@ -5465,7 +5556,7 @@
         <v>826.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="65">
         <v>5</v>
@@ -5495,8 +5586,8 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>839000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>839050000</v>
       </c>
       <c r="L6" s="39">
         <v>1000000000</v>
@@ -5508,8 +5599,8 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>814000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>813950000</v>
       </c>
       <c r="P6" s="39">
         <v>1000000000</v>
@@ -5522,7 +5613,7 @@
         <v>826.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="65">
         <v>5</v>
@@ -5552,8 +5643,8 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>839000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>839050000</v>
       </c>
       <c r="L7" s="39">
         <v>1000000000</v>
@@ -5565,8 +5656,8 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>814000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>813950000</v>
       </c>
       <c r="P7" s="39">
         <v>1000000000</v>
@@ -5579,7 +5670,7 @@
         <v>826.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="65">
         <v>10</v>
@@ -5609,8 +5700,8 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>849000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L8" s="39">
         <v>1000000000</v>
@@ -5622,8 +5713,8 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>809000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>808950000</v>
       </c>
       <c r="P8" s="39">
         <v>1000000000</v>
@@ -5636,7 +5727,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="65">
         <v>10</v>
@@ -5666,8 +5757,8 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>849000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L9" s="39">
         <v>1000000000</v>
@@ -5679,8 +5770,8 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>809000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>808950000</v>
       </c>
       <c r="P9" s="39">
         <v>1000000000</v>
@@ -5693,7 +5784,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="65">
         <v>10</v>
@@ -5723,8 +5814,8 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>849000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L10" s="39">
         <v>1000000000</v>
@@ -5736,8 +5827,8 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>809000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>808950000</v>
       </c>
       <c r="P10" s="39">
         <v>1000000000</v>
@@ -5750,7 +5841,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="65">
         <v>1.4</v>
@@ -5780,8 +5871,8 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>840000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>840050000</v>
       </c>
       <c r="L11" s="39">
         <v>1000000000</v>
@@ -5793,8 +5884,8 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>833000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>832950000</v>
       </c>
       <c r="P11" s="39">
         <v>1000000000</v>
@@ -5807,7 +5898,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="65">
         <v>1.4</v>
@@ -5837,8 +5928,8 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>840000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>840050000</v>
       </c>
       <c r="L12" s="39">
         <v>1000000000</v>
@@ -5850,8 +5941,8 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>833000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>832950000</v>
       </c>
       <c r="P12" s="39">
         <v>1000000000</v>
@@ -5864,7 +5955,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="65">
         <v>1.4</v>
@@ -5894,8 +5985,8 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>840000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>840050000</v>
       </c>
       <c r="L13" s="39">
         <v>1000000000</v>
@@ -5907,8 +5998,8 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>833000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>832950000</v>
       </c>
       <c r="P13" s="39">
         <v>1000000000</v>
@@ -5921,7 +6012,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="65">
         <v>5</v>
@@ -5951,8 +6042,8 @@
         <v>30000000</v>
       </c>
       <c r="K14" s="53">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>849000000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L14" s="39">
         <v>1000000000</v>
@@ -5964,8 +6055,8 @@
         <v>30000000</v>
       </c>
       <c r="O14" s="53">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>824000000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P14" s="39">
         <v>1000000000</v>
@@ -5978,7 +6069,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="65">
         <v>5</v>
@@ -6008,8 +6099,8 @@
         <v>30000000</v>
       </c>
       <c r="K15" s="53">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>849000000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L15" s="39">
         <v>1000000000</v>
@@ -6021,8 +6112,8 @@
         <v>30000000</v>
       </c>
       <c r="O15" s="53">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>824000000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P15" s="39">
         <v>1000000000</v>
@@ -6035,7 +6126,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
       <c r="B16" s="65">
         <v>5</v>
@@ -6065,8 +6156,8 @@
         <v>30000000</v>
       </c>
       <c r="K16" s="53">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>849000000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L16" s="39">
         <v>1000000000</v>
@@ -6078,8 +6169,8 @@
         <v>30000000</v>
       </c>
       <c r="O16" s="53">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>824000000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P16" s="39">
         <v>1000000000</v>
@@ -6122,8 +6213,8 @@
         <v>30000000</v>
       </c>
       <c r="K17" s="53">
-        <f>(R17+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>856500000</v>
+        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>856550000</v>
       </c>
       <c r="L17" s="39">
         <v>1000000000</v>
@@ -6135,8 +6226,8 @@
         <v>30000000</v>
       </c>
       <c r="O17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>816500000</v>
+        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>816450000</v>
       </c>
       <c r="P17" s="39">
         <v>1000000000</v>
@@ -6179,8 +6270,8 @@
         <v>30000000</v>
       </c>
       <c r="K18" s="53">
-        <f>(R18+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>856500000</v>
+        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>856550000</v>
       </c>
       <c r="L18" s="39">
         <v>1000000000</v>
@@ -6192,8 +6283,8 @@
         <v>30000000</v>
       </c>
       <c r="O18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>816500000</v>
+        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>816450000</v>
       </c>
       <c r="P18" s="39">
         <v>1000000000</v>
@@ -6236,8 +6327,8 @@
         <v>30000000</v>
       </c>
       <c r="K19" s="53">
-        <f>(R19+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>856500000</v>
+        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>856550000</v>
       </c>
       <c r="L19" s="39">
         <v>1000000000</v>
@@ -6249,8 +6340,8 @@
         <v>30000000</v>
       </c>
       <c r="O19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>816500000</v>
+        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>816450000</v>
       </c>
       <c r="P19" s="39">
         <v>1000000000</v>
@@ -6293,8 +6384,8 @@
         <v>30000000</v>
       </c>
       <c r="K20" s="53">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>851800000</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>851850000</v>
       </c>
       <c r="L20" s="39">
         <v>1000000000</v>
@@ -6306,8 +6397,8 @@
         <v>30000000</v>
       </c>
       <c r="O20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>844800000</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>844750000</v>
       </c>
       <c r="P20" s="39">
         <v>1000000000</v>
@@ -6350,8 +6441,8 @@
         <v>30000000</v>
       </c>
       <c r="K21" s="53">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>851800000</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>851850000</v>
       </c>
       <c r="L21" s="39">
         <v>1000000000</v>
@@ -6363,8 +6454,8 @@
         <v>30000000</v>
       </c>
       <c r="O21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>844800000</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>844750000</v>
       </c>
       <c r="P21" s="39">
         <v>1000000000</v>
@@ -6407,8 +6498,8 @@
         <v>30000000</v>
       </c>
       <c r="K22" s="53">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>851800000</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>851850000</v>
       </c>
       <c r="L22" s="39">
         <v>1000000000</v>
@@ -6420,8 +6511,8 @@
         <v>30000000</v>
       </c>
       <c r="O22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>844800000</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>844750000</v>
       </c>
       <c r="P22" s="39">
         <v>1000000000</v>
@@ -6464,8 +6555,8 @@
         <v>30000000</v>
       </c>
       <c r="K23" s="53">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>859000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>859050000</v>
       </c>
       <c r="L23" s="39">
         <v>1000000000</v>
@@ -6477,8 +6568,8 @@
         <v>30000000</v>
       </c>
       <c r="O23" s="53">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>834000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>833950000</v>
       </c>
       <c r="P23" s="39">
         <v>1000000000</v>
@@ -6521,8 +6612,8 @@
         <v>30000000</v>
       </c>
       <c r="K24" s="53">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>859000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>859050000</v>
       </c>
       <c r="L24" s="39">
         <v>1000000000</v>
@@ -6534,8 +6625,8 @@
         <v>30000000</v>
       </c>
       <c r="O24" s="53">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>834000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>833950000</v>
       </c>
       <c r="P24" s="39">
         <v>1000000000</v>
@@ -6578,8 +6669,8 @@
         <v>30000000</v>
       </c>
       <c r="K25" s="53">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>859000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>859050000</v>
       </c>
       <c r="L25" s="39">
         <v>1000000000</v>
@@ -6591,8 +6682,8 @@
         <v>30000000</v>
       </c>
       <c r="O25" s="53">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>834000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>833950000</v>
       </c>
       <c r="P25" s="39">
         <v>1000000000</v>
@@ -6635,8 +6726,8 @@
         <v>30000000</v>
       </c>
       <c r="K26" s="53">
-        <f>(R26+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>864000000</v>
+        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>864050000</v>
       </c>
       <c r="L26" s="39">
         <v>1000000000</v>
@@ -6648,8 +6739,8 @@
         <v>30000000</v>
       </c>
       <c r="O26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>824000000</v>
+        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P26" s="39">
         <v>1000000000</v>
@@ -6692,8 +6783,8 @@
         <v>30000000</v>
       </c>
       <c r="K27" s="53">
-        <f>(R27+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>864000000</v>
+        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>864050000</v>
       </c>
       <c r="L27" s="39">
         <v>1000000000</v>
@@ -6705,8 +6796,8 @@
         <v>30000000</v>
       </c>
       <c r="O27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>824000000</v>
+        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P27" s="39">
         <v>1000000000</v>
@@ -6749,8 +6840,8 @@
         <v>30000000</v>
       </c>
       <c r="K28" s="53">
-        <f>(R28+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>864000000</v>
+        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>864050000</v>
       </c>
       <c r="L28" s="39">
         <v>1000000000</v>
@@ -6762,8 +6853,8 @@
         <v>30000000</v>
       </c>
       <c r="O28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>824000000</v>
+        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P28" s="39">
         <v>1000000000</v>
@@ -6808,10 +6899,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108741B-A8D0-4BB3-B12C-6B68B68001DF}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:R28"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6835,7 +6926,7 @@
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -6890,8 +6981,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>12</v>
       </c>
@@ -6923,8 +7020,8 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>703200000</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>703250000</v>
       </c>
       <c r="L2" s="39">
         <v>1000000000</v>
@@ -6936,8 +7033,8 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>696200000</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>696150000</v>
       </c>
       <c r="P2" s="39">
         <v>1000000000</v>
@@ -6949,8 +7046,15 @@
         <f>C2-30</f>
         <v>699.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>100000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -6980,8 +7084,8 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>703200000</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>703250000</v>
       </c>
       <c r="L3" s="39">
         <v>1000000000</v>
@@ -6993,8 +7097,8 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>696200000</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>696150000</v>
       </c>
       <c r="P3" s="39">
         <v>1000000000</v>
@@ -7007,7 +7111,7 @@
         <v>699.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -7037,8 +7141,8 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>703200000</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>703250000</v>
       </c>
       <c r="L4" s="39">
         <v>1000000000</v>
@@ -7050,8 +7154,8 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>696200000</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>696150000</v>
       </c>
       <c r="P4" s="39">
         <v>1000000000</v>
@@ -7064,7 +7168,7 @@
         <v>699.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -7094,8 +7198,8 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>714000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>714050000</v>
       </c>
       <c r="L5" s="39">
         <v>1000000000</v>
@@ -7107,8 +7211,8 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>689000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>688950000</v>
       </c>
       <c r="P5" s="39">
         <v>1000000000</v>
@@ -7121,7 +7225,7 @@
         <v>701.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -7151,8 +7255,8 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>714000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>714050000</v>
       </c>
       <c r="L6" s="39">
         <v>1000000000</v>
@@ -7164,8 +7268,8 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>689000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>688950000</v>
       </c>
       <c r="P6" s="39">
         <v>1000000000</v>
@@ -7178,7 +7282,7 @@
         <v>701.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -7208,8 +7312,8 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>714000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>714050000</v>
       </c>
       <c r="L7" s="39">
         <v>1000000000</v>
@@ -7221,8 +7325,8 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>689000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>688950000</v>
       </c>
       <c r="P7" s="39">
         <v>1000000000</v>
@@ -7235,7 +7339,7 @@
         <v>701.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>10</v>
@@ -7265,8 +7369,8 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>724000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>724050000</v>
       </c>
       <c r="L8" s="39">
         <v>1000000000</v>
@@ -7278,8 +7382,8 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>684000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>683950000</v>
       </c>
       <c r="P8" s="39">
         <v>1000000000</v>
@@ -7292,7 +7396,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>10</v>
@@ -7322,8 +7426,8 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>724000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>724050000</v>
       </c>
       <c r="L9" s="39">
         <v>1000000000</v>
@@ -7335,8 +7439,8 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>684000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>683950000</v>
       </c>
       <c r="P9" s="39">
         <v>1000000000</v>
@@ -7349,7 +7453,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>10</v>
@@ -7379,8 +7483,8 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>724000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>724050000</v>
       </c>
       <c r="L10" s="39">
         <v>1000000000</v>
@@ -7392,8 +7496,8 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>684000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>683950000</v>
       </c>
       <c r="P10" s="39">
         <v>1000000000</v>
@@ -7406,7 +7510,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -7436,8 +7540,8 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>711050000</v>
       </c>
       <c r="L11" s="39">
         <v>1000000000</v>
@@ -7449,8 +7553,8 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>704000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>703950000</v>
       </c>
       <c r="P11" s="39">
         <v>1000000000</v>
@@ -7463,7 +7567,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -7493,8 +7597,8 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>711050000</v>
       </c>
       <c r="L12" s="39">
         <v>1000000000</v>
@@ -7506,8 +7610,8 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>704000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>703950000</v>
       </c>
       <c r="P12" s="39">
         <v>1000000000</v>
@@ -7520,7 +7624,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -7550,8 +7654,8 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>711050000</v>
       </c>
       <c r="L13" s="39">
         <v>1000000000</v>
@@ -7563,8 +7667,8 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>704000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>703950000</v>
       </c>
       <c r="P13" s="39">
         <v>1000000000</v>
@@ -7577,7 +7681,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -7607,8 +7711,8 @@
         <v>30000000</v>
       </c>
       <c r="K14" s="53">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>720000000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>720050000</v>
       </c>
       <c r="L14" s="39">
         <v>1000000000</v>
@@ -7620,8 +7724,8 @@
         <v>30000000</v>
       </c>
       <c r="O14" s="53">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>695000000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>694950000</v>
       </c>
       <c r="P14" s="39">
         <v>1000000000</v>
@@ -7634,7 +7738,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -7664,8 +7768,8 @@
         <v>30000000</v>
       </c>
       <c r="K15" s="53">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>720000000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>720050000</v>
       </c>
       <c r="L15" s="39">
         <v>1000000000</v>
@@ -7677,8 +7781,8 @@
         <v>30000000</v>
       </c>
       <c r="O15" s="53">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>695000000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>694950000</v>
       </c>
       <c r="P15" s="39">
         <v>1000000000</v>
@@ -7691,7 +7795,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -7721,8 +7825,8 @@
         <v>30000000</v>
       </c>
       <c r="K16" s="53">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>720000000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>720050000</v>
       </c>
       <c r="L16" s="39">
         <v>1000000000</v>
@@ -7734,8 +7838,8 @@
         <v>30000000</v>
       </c>
       <c r="O16" s="53">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>695000000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>694950000</v>
       </c>
       <c r="P16" s="39">
         <v>1000000000</v>
@@ -7778,8 +7882,8 @@
         <v>30000000</v>
       </c>
       <c r="K17" s="53">
-        <f>(R17+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>727500000</v>
+        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>727550000</v>
       </c>
       <c r="L17" s="39">
         <v>1000000000</v>
@@ -7791,8 +7895,8 @@
         <v>30000000</v>
       </c>
       <c r="O17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>687500000</v>
+        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>687450000</v>
       </c>
       <c r="P17" s="39">
         <v>1000000000</v>
@@ -7835,8 +7939,8 @@
         <v>30000000</v>
       </c>
       <c r="K18" s="53">
-        <f>(R18+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>727500000</v>
+        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>727550000</v>
       </c>
       <c r="L18" s="39">
         <v>1000000000</v>
@@ -7848,8 +7952,8 @@
         <v>30000000</v>
       </c>
       <c r="O18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>687500000</v>
+        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>687450000</v>
       </c>
       <c r="P18" s="39">
         <v>1000000000</v>
@@ -7892,8 +7996,8 @@
         <v>30000000</v>
       </c>
       <c r="K19" s="53">
-        <f>(R19+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>727500000</v>
+        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>727550000</v>
       </c>
       <c r="L19" s="39">
         <v>1000000000</v>
@@ -7905,8 +8009,8 @@
         <v>30000000</v>
       </c>
       <c r="O19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>687500000</v>
+        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>687450000</v>
       </c>
       <c r="P19" s="39">
         <v>1000000000</v>
@@ -7949,8 +8053,8 @@
         <v>30000000</v>
       </c>
       <c r="K20" s="53">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>718800000</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>718850000</v>
       </c>
       <c r="L20" s="39">
         <v>1000000000</v>
@@ -7962,8 +8066,8 @@
         <v>30000000</v>
       </c>
       <c r="O20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711800000</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>711750000</v>
       </c>
       <c r="P20" s="39">
         <v>1000000000</v>
@@ -8006,8 +8110,8 @@
         <v>30000000</v>
       </c>
       <c r="K21" s="53">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>718800000</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>718850000</v>
       </c>
       <c r="L21" s="39">
         <v>1000000000</v>
@@ -8019,8 +8123,8 @@
         <v>30000000</v>
       </c>
       <c r="O21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711800000</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>711750000</v>
       </c>
       <c r="P21" s="39">
         <v>1000000000</v>
@@ -8063,8 +8167,8 @@
         <v>30000000</v>
       </c>
       <c r="K22" s="53">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>718800000</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>718850000</v>
       </c>
       <c r="L22" s="39">
         <v>1000000000</v>
@@ -8076,8 +8180,8 @@
         <v>30000000</v>
       </c>
       <c r="O22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711800000</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>711750000</v>
       </c>
       <c r="P22" s="39">
         <v>1000000000</v>
@@ -8120,8 +8224,8 @@
         <v>30000000</v>
       </c>
       <c r="K23" s="53">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>726000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>726050000</v>
       </c>
       <c r="L23" s="39">
         <v>1000000000</v>
@@ -8133,8 +8237,8 @@
         <v>30000000</v>
       </c>
       <c r="O23" s="53">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>701000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>700950000</v>
       </c>
       <c r="P23" s="39">
         <v>1000000000</v>
@@ -8177,8 +8281,8 @@
         <v>30000000</v>
       </c>
       <c r="K24" s="53">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>726000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>726050000</v>
       </c>
       <c r="L24" s="39">
         <v>1000000000</v>
@@ -8190,8 +8294,8 @@
         <v>30000000</v>
       </c>
       <c r="O24" s="53">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>701000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>700950000</v>
       </c>
       <c r="P24" s="39">
         <v>1000000000</v>
@@ -8234,8 +8338,8 @@
         <v>30000000</v>
       </c>
       <c r="K25" s="53">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>726000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>726050000</v>
       </c>
       <c r="L25" s="39">
         <v>1000000000</v>
@@ -8247,8 +8351,8 @@
         <v>30000000</v>
       </c>
       <c r="O25" s="53">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>701000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>700950000</v>
       </c>
       <c r="P25" s="39">
         <v>1000000000</v>
@@ -8291,8 +8395,8 @@
         <v>30000000</v>
       </c>
       <c r="K26" s="53">
-        <f>(R26+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>731000000</v>
+        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>731050000</v>
       </c>
       <c r="L26" s="39">
         <v>1000000000</v>
@@ -8304,8 +8408,8 @@
         <v>30000000</v>
       </c>
       <c r="O26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>691000000</v>
+        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>690950000</v>
       </c>
       <c r="P26" s="39">
         <v>1000000000</v>
@@ -8348,8 +8452,8 @@
         <v>30000000</v>
       </c>
       <c r="K27" s="53">
-        <f>(R27+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>731000000</v>
+        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>731050000</v>
       </c>
       <c r="L27" s="39">
         <v>1000000000</v>
@@ -8361,8 +8465,8 @@
         <v>30000000</v>
       </c>
       <c r="O27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>691000000</v>
+        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>690950000</v>
       </c>
       <c r="P27" s="39">
         <v>1000000000</v>
@@ -8405,8 +8509,8 @@
         <v>30000000</v>
       </c>
       <c r="K28" s="53">
-        <f>(R28+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>731000000</v>
+        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>731050000</v>
       </c>
       <c r="L28" s="39">
         <v>1000000000</v>
@@ -8418,8 +8522,8 @@
         <v>30000000</v>
       </c>
       <c r="O28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>691000000</v>
+        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>690950000</v>
       </c>
       <c r="P28" s="39">
         <v>1000000000</v>
@@ -8439,10 +8543,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDABD784-AD31-46F2-99DC-A4DD1B41AE1B}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8465,7 +8569,7 @@
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -8520,8 +8624,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>13</v>
       </c>
@@ -8553,8 +8663,8 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>792000000</v>
+        <f>((R2+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>792050000</v>
       </c>
       <c r="L2" s="39">
         <v>1000000000</v>
@@ -8566,8 +8676,8 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>767000000</v>
+        <f>((R2-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>766950000</v>
       </c>
       <c r="P2" s="39">
         <v>1000000000</v>
@@ -8579,8 +8689,15 @@
         <f>C2+31</f>
         <v>779.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>100000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>5</v>
@@ -8610,8 +8727,8 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>792000000</v>
+        <f>((R3+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>792050000</v>
       </c>
       <c r="L3" s="39">
         <v>1000000000</v>
@@ -8623,8 +8740,8 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>767000000</v>
+        <f>((R3-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>766950000</v>
       </c>
       <c r="P3" s="39">
         <v>1000000000</v>
@@ -8637,7 +8754,7 @@
         <v>779.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>5</v>
@@ -8667,8 +8784,8 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>792000000</v>
+        <f>((R4+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>792050000</v>
       </c>
       <c r="L4" s="39">
         <v>1000000000</v>
@@ -8680,8 +8797,8 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>767000000</v>
+        <f>((R4-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>766950000</v>
       </c>
       <c r="P4" s="39">
         <v>1000000000</v>
@@ -8694,7 +8811,7 @@
         <v>779.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -8724,8 +8841,8 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>794500000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>794550000</v>
       </c>
       <c r="L5" s="39">
         <v>1000000000</v>
@@ -8737,8 +8854,8 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>769500000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>769450000</v>
       </c>
       <c r="P5" s="39">
         <v>1000000000</v>
@@ -8751,7 +8868,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -8781,8 +8898,8 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>794500000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>794550000</v>
       </c>
       <c r="L6" s="39">
         <v>1000000000</v>
@@ -8794,8 +8911,8 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>769500000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>769450000</v>
       </c>
       <c r="P6" s="39">
         <v>1000000000</v>
@@ -8808,7 +8925,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -8838,8 +8955,8 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>794500000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>794550000</v>
       </c>
       <c r="L7" s="39">
         <v>1000000000</v>
@@ -8851,8 +8968,8 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>769500000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>769450000</v>
       </c>
       <c r="P7" s="39">
         <v>1000000000</v>
@@ -8865,7 +8982,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>5</v>
@@ -8895,8 +9012,8 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>797000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>797050000</v>
       </c>
       <c r="L8" s="39">
         <v>1000000000</v>
@@ -8908,8 +9025,8 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>772000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>771950000</v>
       </c>
       <c r="P8" s="39">
         <v>1000000000</v>
@@ -8922,7 +9039,7 @@
         <v>784.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>5</v>
@@ -8952,8 +9069,8 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>797000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>797050000</v>
       </c>
       <c r="L9" s="39">
         <v>1000000000</v>
@@ -8965,8 +9082,8 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>772000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>771950000</v>
       </c>
       <c r="P9" s="39">
         <v>1000000000</v>
@@ -8979,7 +9096,7 @@
         <v>784.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>5</v>
@@ -9009,8 +9126,8 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>797000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>797050000</v>
       </c>
       <c r="L10" s="39">
         <v>1000000000</v>
@@ -9022,8 +9139,8 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>772000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>771950000</v>
       </c>
       <c r="P10" s="39">
         <v>1000000000</v>
@@ -9036,7 +9153,7 @@
         <v>784.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>10</v>
@@ -9066,8 +9183,8 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>802000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>802050000</v>
       </c>
       <c r="L11" s="39">
         <v>1000000000</v>
@@ -9079,8 +9196,8 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>762000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>761950000</v>
       </c>
       <c r="P11" s="39">
         <v>1000000000</v>
@@ -9093,7 +9210,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>10</v>
@@ -9123,8 +9240,8 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>802000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>802050000</v>
       </c>
       <c r="L12" s="39">
         <v>1000000000</v>
@@ -9136,8 +9253,8 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>762000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>761950000</v>
       </c>
       <c r="P12" s="39">
         <v>1000000000</v>
@@ -9150,7 +9267,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -9180,8 +9297,8 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>802000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>802050000</v>
       </c>
       <c r="L13" s="39">
         <v>1000000000</v>
@@ -9193,8 +9310,8 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>762000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>761950000</v>
       </c>
       <c r="P13" s="39">
         <v>1000000000</v>
@@ -9217,8 +9334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="H8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9289,10 +9406,10 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
@@ -9312,7 +9429,7 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="68">
         <v>-20</v>
       </c>
       <c r="G2" s="39" t="s">
@@ -9376,7 +9493,7 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="68">
         <v>-20</v>
       </c>
       <c r="G3" s="39" t="s">
@@ -9433,7 +9550,7 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="68">
         <v>-20</v>
       </c>
       <c r="G4" s="39" t="s">
@@ -9490,7 +9607,7 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="68">
         <v>-20</v>
       </c>
       <c r="G5" s="39" t="s">
@@ -9547,7 +9664,7 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="68">
         <v>-20</v>
       </c>
       <c r="G6" s="39" t="s">
@@ -9604,7 +9721,7 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="68">
         <v>-20</v>
       </c>
       <c r="G7" s="39" t="s">
@@ -9661,7 +9778,7 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="68">
         <v>-20</v>
       </c>
       <c r="G8" s="39" t="s">
@@ -9718,7 +9835,7 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="68">
         <v>-20</v>
       </c>
       <c r="G9" s="39" t="s">
@@ -9775,7 +9892,7 @@
       <c r="E10" s="51">
         <v>99</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="68">
         <v>-20</v>
       </c>
       <c r="G10" s="39" t="s">
@@ -9832,7 +9949,7 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="68">
         <v>-20</v>
       </c>
       <c r="G11" s="42" t="s">
@@ -9889,7 +10006,7 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="68">
         <v>-20</v>
       </c>
       <c r="G12" s="42" t="s">
@@ -9946,7 +10063,7 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="68">
         <v>-20</v>
       </c>
       <c r="G13" s="42" t="s">
@@ -10003,7 +10120,7 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="68">
         <v>-20</v>
       </c>
       <c r="G14" s="42" t="s">
@@ -10060,7 +10177,7 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="68">
         <v>-20</v>
       </c>
       <c r="G15" s="42" t="s">
@@ -10117,7 +10234,7 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="68">
         <v>-20</v>
       </c>
       <c r="G16" s="42" t="s">
@@ -10174,7 +10291,7 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="68">
         <v>-20</v>
       </c>
       <c r="G17" s="42" t="s">
@@ -10231,7 +10348,7 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="68">
         <v>-20</v>
       </c>
       <c r="G18" s="42" t="s">
@@ -10288,7 +10405,7 @@
       <c r="E19" s="41">
         <v>99</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="68">
         <v>-20</v>
       </c>
       <c r="G19" s="42" t="s">
@@ -10345,7 +10462,7 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="68">
         <v>-20</v>
       </c>
       <c r="G20" s="45" t="s">
@@ -10402,7 +10519,7 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="68">
         <v>-20</v>
       </c>
       <c r="G21" s="45" t="s">
@@ -10459,7 +10576,7 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="68">
         <v>-20</v>
       </c>
       <c r="G22" s="45" t="s">
@@ -10516,7 +10633,7 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="68">
         <v>-20</v>
       </c>
       <c r="G23" s="45" t="s">
@@ -10573,7 +10690,7 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="68">
         <v>-20</v>
       </c>
       <c r="G24" s="45" t="s">
@@ -10630,7 +10747,7 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="68">
         <v>-20</v>
       </c>
       <c r="G25" s="45" t="s">
@@ -10687,7 +10804,7 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="68">
         <v>-20</v>
       </c>
       <c r="G26" s="45" t="s">
@@ -10744,7 +10861,7 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="68">
         <v>-20</v>
       </c>
       <c r="G27" s="45" t="s">
@@ -10801,7 +10918,7 @@
       <c r="E28" s="44">
         <v>99</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="68">
         <v>-20</v>
       </c>
       <c r="G28" s="45" t="s">
@@ -11797,7 +11914,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A21" sqref="A21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Band2MinPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MinPowerInput1_FrequencySweepRanges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hclo365-my.sharepoint.com/personal/aayush_jain_hcl_com/Documents/Facebook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\DVT-Wireless-HCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{29D0E568-EE65-415B-89C9-359224AD92FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{3C376A60-873D-4805-BB3B-0FB2E91BD418}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC55430-1671-48B3-98B4-95F4579CFA8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F21EF5-0615-4121-83E8-517FC8180B1A}">
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1058,8 +1060,8 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="52">
-        <v>23</v>
+      <c r="F2" s="68">
+        <v>-20</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>7</v>
@@ -1156,8 +1158,8 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="52">
-        <v>23</v>
+      <c r="F3" s="68">
+        <v>-20</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>7</v>
@@ -1255,8 +1257,8 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="52">
-        <v>23</v>
+      <c r="F4" s="68">
+        <v>-20</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>7</v>
@@ -1357,8 +1359,8 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="52">
-        <v>23</v>
+      <c r="F5" s="68">
+        <v>-20</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>7</v>
@@ -1459,8 +1461,8 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="52">
-        <v>23</v>
+      <c r="F6" s="68">
+        <v>-20</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>7</v>
@@ -1549,8 +1551,8 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="52">
-        <v>23</v>
+      <c r="F7" s="68">
+        <v>-20</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>7</v>
@@ -1639,8 +1641,8 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="52">
-        <v>23</v>
+      <c r="F8" s="68">
+        <v>-20</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>7</v>
@@ -1739,8 +1741,8 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="52">
-        <v>23</v>
+      <c r="F9" s="68">
+        <v>-20</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>7</v>
@@ -1832,8 +1834,8 @@
       <c r="E10" s="51">
         <v>99</v>
       </c>
-      <c r="F10" s="52">
-        <v>23</v>
+      <c r="F10" s="68">
+        <v>-20</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>7</v>
@@ -1933,8 +1935,8 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="43">
-        <v>23</v>
+      <c r="F11" s="68">
+        <v>-20</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>8</v>
@@ -2023,8 +2025,8 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="43">
-        <v>23</v>
+      <c r="F12" s="68">
+        <v>-20</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>8</v>
@@ -2113,8 +2115,8 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="43">
-        <v>23</v>
+      <c r="F13" s="68">
+        <v>-20</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>8</v>
@@ -2203,8 +2205,8 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="43">
-        <v>23</v>
+      <c r="F14" s="68">
+        <v>-20</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>8</v>
@@ -2293,8 +2295,8 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="43">
-        <v>23</v>
+      <c r="F15" s="68">
+        <v>-20</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>8</v>
@@ -2386,8 +2388,8 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="43">
-        <v>23</v>
+      <c r="F16" s="68">
+        <v>-20</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>8</v>
@@ -2479,8 +2481,8 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="43">
-        <v>23</v>
+      <c r="F17" s="68">
+        <v>-20</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>8</v>
@@ -2572,8 +2574,8 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="43">
-        <v>23</v>
+      <c r="F18" s="68">
+        <v>-20</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>8</v>
@@ -2665,8 +2667,8 @@
       <c r="E19" s="41">
         <v>99</v>
       </c>
-      <c r="F19" s="43">
-        <v>23</v>
+      <c r="F19" s="68">
+        <v>-20</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>8</v>
@@ -2758,8 +2760,8 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="46">
-        <v>23</v>
+      <c r="F20" s="68">
+        <v>-20</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>9</v>
@@ -2851,8 +2853,8 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="46">
-        <v>23</v>
+      <c r="F21" s="68">
+        <v>-20</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>9</v>
@@ -2944,8 +2946,8 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="46">
-        <v>23</v>
+      <c r="F22" s="68">
+        <v>-20</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>9</v>
@@ -3037,8 +3039,8 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="46">
-        <v>23</v>
+      <c r="F23" s="68">
+        <v>-20</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>9</v>
@@ -3130,8 +3132,8 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="46">
-        <v>23</v>
+      <c r="F24" s="68">
+        <v>-20</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>9</v>
@@ -3223,8 +3225,8 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="46">
-        <v>23</v>
+      <c r="F25" s="68">
+        <v>-20</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>9</v>
@@ -3313,8 +3315,8 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="46">
-        <v>23</v>
+      <c r="F26" s="68">
+        <v>-20</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>9</v>
@@ -3406,8 +3408,8 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="46">
-        <v>23</v>
+      <c r="F27" s="68">
+        <v>-20</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>9</v>
@@ -3499,8 +3501,8 @@
       <c r="E28" s="44">
         <v>99</v>
       </c>
-      <c r="F28" s="46">
-        <v>23</v>
+      <c r="F28" s="68">
+        <v>-20</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>9</v>
@@ -3589,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F8828-1D8C-4AAA-81FD-7AC3397EB1C9}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,8 +3693,8 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="52">
-        <v>23</v>
+      <c r="F2" s="68">
+        <v>-20</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>7</v>
@@ -3755,8 +3757,8 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="52">
-        <v>23</v>
+      <c r="F3" s="68">
+        <v>-20</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>7</v>
@@ -3812,8 +3814,8 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="52">
-        <v>23</v>
+      <c r="F4" s="68">
+        <v>-20</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>7</v>
@@ -3869,8 +3871,8 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="52">
-        <v>23</v>
+      <c r="F5" s="68">
+        <v>-20</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>7</v>
@@ -3926,8 +3928,8 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="52">
-        <v>23</v>
+      <c r="F6" s="68">
+        <v>-20</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>7</v>
@@ -3983,8 +3985,8 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="52">
-        <v>23</v>
+      <c r="F7" s="68">
+        <v>-20</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>7</v>
@@ -4040,8 +4042,8 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="52">
-        <v>23</v>
+      <c r="F8" s="68">
+        <v>-20</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>7</v>
@@ -4097,8 +4099,8 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="52">
-        <v>23</v>
+      <c r="F9" s="68">
+        <v>-20</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>7</v>
@@ -4154,8 +4156,8 @@
       <c r="E10" s="51">
         <v>99</v>
       </c>
-      <c r="F10" s="52">
-        <v>23</v>
+      <c r="F10" s="68">
+        <v>-20</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>7</v>
@@ -4211,8 +4213,8 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="43">
-        <v>23</v>
+      <c r="F11" s="68">
+        <v>-20</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>8</v>
@@ -4268,8 +4270,8 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="43">
-        <v>23</v>
+      <c r="F12" s="68">
+        <v>-20</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>8</v>
@@ -4325,8 +4327,8 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="43">
-        <v>23</v>
+      <c r="F13" s="68">
+        <v>-20</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>8</v>
@@ -4382,8 +4384,8 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="43">
-        <v>23</v>
+      <c r="F14" s="68">
+        <v>-20</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>8</v>
@@ -4439,8 +4441,8 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="43">
-        <v>23</v>
+      <c r="F15" s="68">
+        <v>-20</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>8</v>
@@ -4496,8 +4498,8 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="43">
-        <v>23</v>
+      <c r="F16" s="68">
+        <v>-20</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>8</v>
@@ -4553,8 +4555,8 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="43">
-        <v>23</v>
+      <c r="F17" s="68">
+        <v>-20</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>8</v>
@@ -4610,8 +4612,8 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="43">
-        <v>23</v>
+      <c r="F18" s="68">
+        <v>-20</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>8</v>
@@ -4667,8 +4669,8 @@
       <c r="E19" s="41">
         <v>99</v>
       </c>
-      <c r="F19" s="43">
-        <v>23</v>
+      <c r="F19" s="68">
+        <v>-20</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>8</v>
@@ -4724,8 +4726,8 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="46">
-        <v>23</v>
+      <c r="F20" s="68">
+        <v>-20</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>9</v>
@@ -4781,8 +4783,8 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="46">
-        <v>23</v>
+      <c r="F21" s="68">
+        <v>-20</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>9</v>
@@ -4838,8 +4840,8 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="46">
-        <v>23</v>
+      <c r="F22" s="68">
+        <v>-20</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>9</v>
@@ -4895,8 +4897,8 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="46">
-        <v>23</v>
+      <c r="F23" s="68">
+        <v>-20</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>9</v>
@@ -4952,8 +4954,8 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="46">
-        <v>23</v>
+      <c r="F24" s="68">
+        <v>-20</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>9</v>
@@ -5009,8 +5011,8 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="46">
-        <v>23</v>
+      <c r="F25" s="68">
+        <v>-20</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>9</v>
@@ -5066,8 +5068,8 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="46">
-        <v>23</v>
+      <c r="F26" s="68">
+        <v>-20</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>9</v>
@@ -5123,8 +5125,8 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="46">
-        <v>23</v>
+      <c r="F27" s="68">
+        <v>-20</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>9</v>
@@ -5180,8 +5182,8 @@
       <c r="E28" s="44">
         <v>99</v>
       </c>
-      <c r="F28" s="46">
-        <v>23</v>
+      <c r="F28" s="68">
+        <v>-20</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>9</v>
@@ -5232,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8596D56-7C71-4D72-A666-9CAEA981CBE7}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5335,8 +5337,8 @@
       <c r="E2" s="64">
         <v>0</v>
       </c>
-      <c r="F2" s="65">
-        <v>23</v>
+      <c r="F2" s="68">
+        <v>-20</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>7</v>
@@ -5399,8 +5401,8 @@
       <c r="E3" s="64">
         <v>0</v>
       </c>
-      <c r="F3" s="65">
-        <v>23</v>
+      <c r="F3" s="68">
+        <v>-20</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>7</v>
@@ -5456,8 +5458,8 @@
       <c r="E4" s="64">
         <v>5</v>
       </c>
-      <c r="F4" s="65">
-        <v>23</v>
+      <c r="F4" s="68">
+        <v>-20</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>7</v>
@@ -5513,8 +5515,8 @@
       <c r="E5" s="64">
         <v>0</v>
       </c>
-      <c r="F5" s="65">
-        <v>23</v>
+      <c r="F5" s="68">
+        <v>-20</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>7</v>
@@ -5570,8 +5572,8 @@
       <c r="E6" s="64">
         <v>0</v>
       </c>
-      <c r="F6" s="65">
-        <v>23</v>
+      <c r="F6" s="68">
+        <v>-20</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>7</v>
@@ -5627,8 +5629,8 @@
       <c r="E7" s="64">
         <v>24</v>
       </c>
-      <c r="F7" s="65">
-        <v>23</v>
+      <c r="F7" s="68">
+        <v>-20</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>7</v>
@@ -5684,8 +5686,8 @@
       <c r="E8" s="64">
         <v>0</v>
       </c>
-      <c r="F8" s="65">
-        <v>23</v>
+      <c r="F8" s="68">
+        <v>-20</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>7</v>
@@ -5741,8 +5743,8 @@
       <c r="E9" s="64">
         <v>0</v>
       </c>
-      <c r="F9" s="65">
-        <v>23</v>
+      <c r="F9" s="68">
+        <v>-20</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>7</v>
@@ -5798,8 +5800,8 @@
       <c r="E10" s="64">
         <v>49</v>
       </c>
-      <c r="F10" s="65">
-        <v>23</v>
+      <c r="F10" s="68">
+        <v>-20</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>7</v>
@@ -5855,8 +5857,8 @@
       <c r="E11" s="64">
         <v>0</v>
       </c>
-      <c r="F11" s="65">
-        <v>23</v>
+      <c r="F11" s="68">
+        <v>-20</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>8</v>
@@ -5912,8 +5914,8 @@
       <c r="E12" s="64">
         <v>0</v>
       </c>
-      <c r="F12" s="65">
-        <v>23</v>
+      <c r="F12" s="68">
+        <v>-20</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>8</v>
@@ -5969,8 +5971,8 @@
       <c r="E13" s="64">
         <v>5</v>
       </c>
-      <c r="F13" s="65">
-        <v>23</v>
+      <c r="F13" s="68">
+        <v>-20</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>8</v>
@@ -6026,8 +6028,8 @@
       <c r="E14" s="64">
         <v>0</v>
       </c>
-      <c r="F14" s="65">
-        <v>23</v>
+      <c r="F14" s="68">
+        <v>-20</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>8</v>
@@ -6083,8 +6085,8 @@
       <c r="E15" s="64">
         <v>0</v>
       </c>
-      <c r="F15" s="65">
-        <v>23</v>
+      <c r="F15" s="68">
+        <v>-20</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>8</v>
@@ -6140,8 +6142,8 @@
       <c r="E16" s="64">
         <v>24</v>
       </c>
-      <c r="F16" s="65">
-        <v>23</v>
+      <c r="F16" s="68">
+        <v>-20</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>8</v>
@@ -6197,8 +6199,8 @@
       <c r="E17" s="64">
         <v>0</v>
       </c>
-      <c r="F17" s="65">
-        <v>23</v>
+      <c r="F17" s="68">
+        <v>-20</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>8</v>
@@ -6254,8 +6256,8 @@
       <c r="E18" s="64">
         <v>0</v>
       </c>
-      <c r="F18" s="65">
-        <v>23</v>
+      <c r="F18" s="68">
+        <v>-20</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>8</v>
@@ -6311,8 +6313,8 @@
       <c r="E19" s="64">
         <v>49</v>
       </c>
-      <c r="F19" s="65">
-        <v>23</v>
+      <c r="F19" s="68">
+        <v>-20</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>8</v>
@@ -6368,8 +6370,8 @@
       <c r="E20" s="64">
         <v>0</v>
       </c>
-      <c r="F20" s="65">
-        <v>23</v>
+      <c r="F20" s="68">
+        <v>-20</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>9</v>
@@ -6425,8 +6427,8 @@
       <c r="E21" s="64">
         <v>0</v>
       </c>
-      <c r="F21" s="65">
-        <v>23</v>
+      <c r="F21" s="68">
+        <v>-20</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>9</v>
@@ -6482,8 +6484,8 @@
       <c r="E22" s="64">
         <v>5</v>
       </c>
-      <c r="F22" s="65">
-        <v>23</v>
+      <c r="F22" s="68">
+        <v>-20</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>9</v>
@@ -6539,8 +6541,8 @@
       <c r="E23" s="64">
         <v>0</v>
       </c>
-      <c r="F23" s="65">
-        <v>23</v>
+      <c r="F23" s="68">
+        <v>-20</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>9</v>
@@ -6596,8 +6598,8 @@
       <c r="E24" s="64">
         <v>0</v>
       </c>
-      <c r="F24" s="65">
-        <v>23</v>
+      <c r="F24" s="68">
+        <v>-20</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>9</v>
@@ -6653,8 +6655,8 @@
       <c r="E25" s="64">
         <v>24</v>
       </c>
-      <c r="F25" s="65">
-        <v>23</v>
+      <c r="F25" s="68">
+        <v>-20</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>9</v>
@@ -6710,8 +6712,8 @@
       <c r="E26" s="64">
         <v>0</v>
       </c>
-      <c r="F26" s="65">
-        <v>23</v>
+      <c r="F26" s="68">
+        <v>-20</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>9</v>
@@ -6767,8 +6769,8 @@
       <c r="E27" s="64">
         <v>0</v>
       </c>
-      <c r="F27" s="65">
-        <v>23</v>
+      <c r="F27" s="68">
+        <v>-20</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>9</v>
@@ -6824,8 +6826,8 @@
       <c r="E28" s="64">
         <v>49</v>
       </c>
-      <c r="F28" s="65">
-        <v>23</v>
+      <c r="F28" s="68">
+        <v>-20</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>9</v>
@@ -6901,8 +6903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108741B-A8D0-4BB3-B12C-6B68B68001DF}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7004,8 +7006,8 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="52">
-        <v>23</v>
+      <c r="F2" s="68">
+        <v>-20</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>7</v>
@@ -7068,8 +7070,8 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="52">
-        <v>23</v>
+      <c r="F3" s="68">
+        <v>-20</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>7</v>
@@ -7125,8 +7127,8 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="52">
-        <v>23</v>
+      <c r="F4" s="68">
+        <v>-20</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>7</v>
@@ -7182,8 +7184,8 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="52">
-        <v>23</v>
+      <c r="F5" s="68">
+        <v>-20</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>7</v>
@@ -7239,8 +7241,8 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="52">
-        <v>23</v>
+      <c r="F6" s="68">
+        <v>-20</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>7</v>
@@ -7296,8 +7298,8 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="52">
-        <v>23</v>
+      <c r="F7" s="68">
+        <v>-20</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>7</v>
@@ -7353,8 +7355,8 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="52">
-        <v>23</v>
+      <c r="F8" s="68">
+        <v>-20</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>7</v>
@@ -7410,8 +7412,8 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="52">
-        <v>23</v>
+      <c r="F9" s="68">
+        <v>-20</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>7</v>
@@ -7467,8 +7469,8 @@
       <c r="E10" s="51">
         <v>49</v>
       </c>
-      <c r="F10" s="52">
-        <v>23</v>
+      <c r="F10" s="68">
+        <v>-20</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>7</v>
@@ -7524,8 +7526,8 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="43">
-        <v>23</v>
+      <c r="F11" s="68">
+        <v>-20</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>8</v>
@@ -7581,8 +7583,8 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="43">
-        <v>23</v>
+      <c r="F12" s="68">
+        <v>-20</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>8</v>
@@ -7638,8 +7640,8 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="43">
-        <v>23</v>
+      <c r="F13" s="68">
+        <v>-20</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>8</v>
@@ -7695,8 +7697,8 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="43">
-        <v>23</v>
+      <c r="F14" s="68">
+        <v>-20</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>8</v>
@@ -7752,8 +7754,8 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="43">
-        <v>23</v>
+      <c r="F15" s="68">
+        <v>-20</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>8</v>
@@ -7809,8 +7811,8 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="43">
-        <v>23</v>
+      <c r="F16" s="68">
+        <v>-20</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>8</v>
@@ -7866,8 +7868,8 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="43">
-        <v>23</v>
+      <c r="F17" s="68">
+        <v>-20</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>8</v>
@@ -7923,8 +7925,8 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="43">
-        <v>23</v>
+      <c r="F18" s="68">
+        <v>-20</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>8</v>
@@ -7980,8 +7982,8 @@
       <c r="E19" s="41">
         <v>49</v>
       </c>
-      <c r="F19" s="43">
-        <v>23</v>
+      <c r="F19" s="68">
+        <v>-20</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>8</v>
@@ -8037,8 +8039,8 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="46">
-        <v>23</v>
+      <c r="F20" s="68">
+        <v>-20</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>9</v>
@@ -8094,8 +8096,8 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="46">
-        <v>23</v>
+      <c r="F21" s="68">
+        <v>-20</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>9</v>
@@ -8151,8 +8153,8 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="46">
-        <v>23</v>
+      <c r="F22" s="68">
+        <v>-20</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>9</v>
@@ -8208,8 +8210,8 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="46">
-        <v>23</v>
+      <c r="F23" s="68">
+        <v>-20</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>9</v>
@@ -8265,8 +8267,8 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="46">
-        <v>23</v>
+      <c r="F24" s="68">
+        <v>-20</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>9</v>
@@ -8322,8 +8324,8 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="46">
-        <v>23</v>
+      <c r="F25" s="68">
+        <v>-20</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>9</v>
@@ -8379,8 +8381,8 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="46">
-        <v>23</v>
+      <c r="F26" s="68">
+        <v>-20</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>9</v>
@@ -8436,8 +8438,8 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="46">
-        <v>23</v>
+      <c r="F27" s="68">
+        <v>-20</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>9</v>
@@ -8493,8 +8495,8 @@
       <c r="E28" s="44">
         <v>49</v>
       </c>
-      <c r="F28" s="46">
-        <v>23</v>
+      <c r="F28" s="68">
+        <v>-20</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>9</v>
@@ -8543,10 +8545,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDABD784-AD31-46F2-99DC-A4DD1B41AE1B}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8647,8 +8649,8 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="52">
-        <v>23</v>
+      <c r="F2" s="68">
+        <v>-20</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>7</v>
@@ -8711,8 +8713,8 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="52">
-        <v>23</v>
+      <c r="F3" s="68">
+        <v>-20</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>7</v>
@@ -8768,8 +8770,8 @@
       <c r="E4" s="51">
         <v>24</v>
       </c>
-      <c r="F4" s="52">
-        <v>23</v>
+      <c r="F4" s="68">
+        <v>-20</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>7</v>
@@ -8825,8 +8827,8 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="52">
-        <v>23</v>
+      <c r="F5" s="68">
+        <v>-20</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>8</v>
@@ -8882,8 +8884,8 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="52">
-        <v>23</v>
+      <c r="F6" s="68">
+        <v>-20</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>8</v>
@@ -8939,8 +8941,8 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="52">
-        <v>23</v>
+      <c r="F7" s="68">
+        <v>-20</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>8</v>
@@ -8996,8 +8998,8 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="52">
-        <v>23</v>
+      <c r="F8" s="68">
+        <v>-20</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>9</v>
@@ -9053,8 +9055,8 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="52">
-        <v>23</v>
+      <c r="F9" s="68">
+        <v>-20</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>9</v>
@@ -9110,8 +9112,8 @@
       <c r="E10" s="51">
         <v>24</v>
       </c>
-      <c r="F10" s="52">
-        <v>23</v>
+      <c r="F10" s="68">
+        <v>-20</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>9</v>
@@ -9167,8 +9169,8 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="52">
-        <v>23</v>
+      <c r="F11" s="68">
+        <v>-20</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>8</v>
@@ -9224,8 +9226,8 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="52">
-        <v>23</v>
+      <c r="F12" s="68">
+        <v>-20</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>8</v>
@@ -9281,8 +9283,8 @@
       <c r="E13" s="41">
         <v>49</v>
       </c>
-      <c r="F13" s="52">
-        <v>23</v>
+      <c r="F13" s="68">
+        <v>-20</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>8</v>
@@ -9323,6 +9325,51 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="68"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="68"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="68"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="68"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="68"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="68"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="68"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="68"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="68"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="68"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -9334,8 +9381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Band2MinPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MinPowerInput1_FrequencySweepRanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\DVT-Wireless-HCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC55430-1671-48B3-98B4-95F4579CFA8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5114547-CBBD-42D8-82ED-74AFD073BD7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="2580" yWindow="600" windowWidth="25500" windowHeight="14265" activeTab="1" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -3591,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F8828-1D8C-4AAA-81FD-7AC3397EB1C9}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,24 +4029,24 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="39">
-        <v>20</v>
-      </c>
-      <c r="C8" s="52">
-        <v>2120</v>
-      </c>
-      <c r="D8" s="51">
-        <v>100</v>
-      </c>
-      <c r="E8" s="51">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="43">
+        <v>2132.5</v>
+      </c>
+      <c r="D8" s="41">
+        <v>6</v>
+      </c>
+      <c r="E8" s="41">
         <v>0</v>
       </c>
       <c r="F8" s="68">
         <v>-20</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>7</v>
+      <c r="G8" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="39">
         <v>9000</v>
@@ -4061,8 +4061,8 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="56">
-        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1755500000</v>
+        <f>((R8+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -4074,36 +4074,36 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1684500000</v>
+        <f>((R8-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
       </c>
       <c r="R8" s="57">
         <f t="shared" si="0"/>
-        <v>1720</v>
+        <v>1732.5</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="39">
-        <v>20</v>
-      </c>
-      <c r="C9" s="52">
-        <v>2120</v>
-      </c>
-      <c r="D9" s="51">
-        <v>1</v>
-      </c>
-      <c r="E9" s="51">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="C9" s="43">
+        <v>2132.5</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1</v>
+      </c>
+      <c r="E9" s="41">
         <v>0</v>
       </c>
       <c r="F9" s="68">
         <v>-20</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>7</v>
+      <c r="G9" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="39">
         <v>9000</v>
@@ -4118,8 +4118,8 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="56">
-        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1755500000</v>
+        <f>((R9+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -4131,36 +4131,36 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1684500000</v>
+        <f>((R9-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
       </c>
       <c r="R9" s="57">
         <f t="shared" si="0"/>
-        <v>1720</v>
+        <v>1732.5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="39">
-        <v>20</v>
-      </c>
-      <c r="C10" s="52">
-        <v>2120</v>
-      </c>
-      <c r="D10" s="51">
-        <v>1</v>
-      </c>
-      <c r="E10" s="51">
-        <v>99</v>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="C10" s="43">
+        <v>2132.5</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1</v>
+      </c>
+      <c r="E10" s="41">
+        <v>5</v>
       </c>
       <c r="F10" s="68">
         <v>-20</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>7</v>
+      <c r="G10" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="H10" s="39">
         <v>9000</v>
@@ -4175,8 +4175,8 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="56">
-        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1755500000</v>
+        <f>((R10+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -4188,27 +4188,27 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1684500000</v>
+        <f>((R10-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
       </c>
       <c r="R10" s="57">
         <f t="shared" si="0"/>
-        <v>1720</v>
+        <v>1732.5</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="43">
         <v>2132.5</v>
       </c>
       <c r="D11" s="41">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E11" s="41">
         <v>0</v>
@@ -4232,8 +4232,8 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="56">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1736500000</v>
+        <f>((R11+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -4245,8 +4245,8 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1728500000</v>
+        <f>((R11-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -4259,7 +4259,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="43">
         <v>2132.5</v>
@@ -4289,8 +4289,8 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="56">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1736500000</v>
+        <f>((R12+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -4302,8 +4302,8 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1728500000</v>
+        <f>((R12-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -4316,7 +4316,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="43">
         <v>2132.5</v>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="41">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F13" s="68">
         <v>-20</v>
@@ -4346,8 +4346,8 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="56">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1736500000</v>
+        <f>((R13+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -4359,8 +4359,8 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1728500000</v>
+        <f>((R13-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -4373,13 +4373,13 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C14" s="43">
         <v>2132.5</v>
       </c>
       <c r="D14" s="41">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E14" s="41">
         <v>0</v>
@@ -4403,8 +4403,8 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="56">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1745500000</v>
+        <f>((R14+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -4416,8 +4416,8 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="53">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
-        <v>1719500000</v>
+        <f>((R14-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -4430,7 +4430,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C15" s="43">
         <v>2132.5</v>
@@ -4460,8 +4460,8 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="56">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1745500000</v>
+        <f>((R15+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -4473,8 +4473,8 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="53">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
-        <v>1719500000</v>
+        <f>((R15-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -4487,7 +4487,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C16" s="43">
         <v>2132.5</v>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="41">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F16" s="68">
         <v>-20</v>
@@ -4517,8 +4517,8 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="56">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1745500000</v>
+        <f>((R16+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -4530,8 +4530,8 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="53">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
-        <v>1719500000</v>
+        <f>((R16-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -4542,24 +4542,24 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42">
-        <v>20</v>
-      </c>
-      <c r="C17" s="43">
-        <v>2132.5</v>
-      </c>
-      <c r="D17" s="41">
-        <v>100</v>
-      </c>
-      <c r="E17" s="41">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45">
+        <v>1.4</v>
+      </c>
+      <c r="C17" s="46">
+        <v>2154.3000000000002</v>
+      </c>
+      <c r="D17" s="44">
+        <v>6</v>
+      </c>
+      <c r="E17" s="44">
         <v>0</v>
       </c>
       <c r="F17" s="68">
         <v>-20</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>8</v>
+      <c r="G17" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="H17" s="39">
         <v>9000</v>
@@ -4574,8 +4574,8 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="56">
-        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1768000000</v>
+        <f>((R17+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -4587,36 +4587,36 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1697000000</v>
+        <f>((R17-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
       </c>
       <c r="R17" s="57">
         <f t="shared" si="0"/>
-        <v>1732.5</v>
+        <v>1754.3000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42">
-        <v>20</v>
-      </c>
-      <c r="C18" s="43">
-        <v>2132.5</v>
-      </c>
-      <c r="D18" s="41">
-        <v>1</v>
-      </c>
-      <c r="E18" s="41">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45">
+        <v>1.4</v>
+      </c>
+      <c r="C18" s="46">
+        <v>2154.3000000000002</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
         <v>0</v>
       </c>
       <c r="F18" s="68">
         <v>-20</v>
       </c>
-      <c r="G18" s="42" t="s">
-        <v>8</v>
+      <c r="G18" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="H18" s="39">
         <v>9000</v>
@@ -4631,8 +4631,8 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="56">
-        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1768000000</v>
+        <f>((R18+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -4644,36 +4644,36 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1697000000</v>
+        <f>((R18-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
       </c>
       <c r="R18" s="57">
         <f t="shared" si="0"/>
-        <v>1732.5</v>
+        <v>1754.3000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42">
-        <v>20</v>
-      </c>
-      <c r="C19" s="43">
-        <v>2132.5</v>
-      </c>
-      <c r="D19" s="41">
-        <v>1</v>
-      </c>
-      <c r="E19" s="41">
-        <v>99</v>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45">
+        <v>1.4</v>
+      </c>
+      <c r="C19" s="46">
+        <v>2154.3000000000002</v>
+      </c>
+      <c r="D19" s="44">
+        <v>1</v>
+      </c>
+      <c r="E19" s="44">
+        <v>5</v>
       </c>
       <c r="F19" s="68">
         <v>-20</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>8</v>
+      <c r="G19" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="H19" s="39">
         <v>9000</v>
@@ -4688,8 +4688,8 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="56">
-        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1768000000</v>
+        <f>((R19+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -4701,27 +4701,27 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1697000000</v>
+        <f>((R19-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
       </c>
       <c r="R19" s="57">
         <f t="shared" si="0"/>
-        <v>1732.5</v>
+        <v>1754.3000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="46">
-        <v>2154.3000000000002</v>
+        <v>2152.5</v>
       </c>
       <c r="D20" s="44">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E20" s="44">
         <v>0</v>
@@ -4745,8 +4745,8 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="56">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1758300000.0000002</v>
+        <f>((R20+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1765500000</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -4758,24 +4758,24 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1750300000.0000002</v>
+        <f>((R20-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1739500000</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
       </c>
       <c r="R20" s="57">
         <f t="shared" si="0"/>
-        <v>1754.3000000000002</v>
+        <v>1752.5</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="46">
-        <v>2154.3000000000002</v>
+        <v>2152.5</v>
       </c>
       <c r="D21" s="44">
         <v>1</v>
@@ -4802,8 +4802,8 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="56">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1758300000.0000002</v>
+        <f>((R21+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1765500000</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -4815,36 +4815,36 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1750300000.0000002</v>
+        <f>((R21-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1739500000</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
       </c>
       <c r="R21" s="57">
         <f t="shared" si="0"/>
-        <v>1754.3000000000002</v>
+        <v>1752.5</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45">
-        <v>1.4</v>
-      </c>
-      <c r="C22" s="46">
-        <v>2154.3000000000002</v>
-      </c>
-      <c r="D22" s="44">
-        <v>1</v>
-      </c>
-      <c r="E22" s="44">
-        <v>5</v>
+      <c r="A22" s="51"/>
+      <c r="B22" s="39">
+        <v>20</v>
+      </c>
+      <c r="C22" s="52">
+        <v>2120</v>
+      </c>
+      <c r="D22" s="51">
+        <v>100</v>
+      </c>
+      <c r="E22" s="51">
+        <v>0</v>
       </c>
       <c r="F22" s="68">
         <v>-20</v>
       </c>
-      <c r="G22" s="45" t="s">
-        <v>9</v>
+      <c r="G22" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="H22" s="39">
         <v>9000</v>
@@ -4859,8 +4859,8 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="56">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1758300000.0000002</v>
+        <f>((R22+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -4872,36 +4872,36 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1750300000.0000002</v>
+        <f>((R22-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
       </c>
       <c r="R22" s="57">
-        <f t="shared" si="0"/>
-        <v>1754.3000000000002</v>
+        <f>C22-400</f>
+        <v>1720</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45">
-        <v>5</v>
-      </c>
-      <c r="C23" s="46">
-        <v>2152.5</v>
-      </c>
-      <c r="D23" s="44">
-        <v>25</v>
-      </c>
-      <c r="E23" s="44">
+      <c r="A23" s="51"/>
+      <c r="B23" s="39">
+        <v>20</v>
+      </c>
+      <c r="C23" s="52">
+        <v>2120</v>
+      </c>
+      <c r="D23" s="51">
+        <v>1</v>
+      </c>
+      <c r="E23" s="51">
         <v>0</v>
       </c>
       <c r="F23" s="68">
         <v>-20</v>
       </c>
-      <c r="G23" s="45" t="s">
-        <v>9</v>
+      <c r="G23" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="H23" s="39">
         <v>9000</v>
@@ -4916,8 +4916,8 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="56">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1765500000</v>
+        <f>((R23+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -4929,36 +4929,36 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="53">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
-        <v>1739500000</v>
+        <f>((R23-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
       </c>
       <c r="R23" s="57">
-        <f t="shared" si="0"/>
-        <v>1752.5</v>
+        <f>C23-400</f>
+        <v>1720</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45">
-        <v>5</v>
-      </c>
-      <c r="C24" s="46">
-        <v>2152.5</v>
-      </c>
-      <c r="D24" s="44">
-        <v>1</v>
-      </c>
-      <c r="E24" s="44">
-        <v>0</v>
+      <c r="A24" s="51"/>
+      <c r="B24" s="39">
+        <v>20</v>
+      </c>
+      <c r="C24" s="52">
+        <v>2120</v>
+      </c>
+      <c r="D24" s="51">
+        <v>1</v>
+      </c>
+      <c r="E24" s="51">
+        <v>99</v>
       </c>
       <c r="F24" s="68">
         <v>-20</v>
       </c>
-      <c r="G24" s="45" t="s">
-        <v>9</v>
+      <c r="G24" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="H24" s="39">
         <v>9000</v>
@@ -4973,8 +4973,8 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="56">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1765500000</v>
+        <f>((R24+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -4986,15 +4986,15 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="53">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
-        <v>1739500000</v>
+        <f>((R24-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
       </c>
       <c r="R24" s="57">
-        <f t="shared" si="0"/>
-        <v>1752.5</v>
+        <f>C24-400</f>
+        <v>1720</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -9381,7 +9381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/Band2MinPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MinPowerInput1_FrequencySweepRanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\DVT-Wireless-HCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5114547-CBBD-42D8-82ED-74AFD073BD7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B09B5EC-0474-46A4-8042-6BBFC5B4F859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="600" windowWidth="25500" windowHeight="14265" activeTab="1" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="95">
   <si>
     <t>Band</t>
   </si>
@@ -337,17 +337,30 @@
   <si>
     <t>Reduce</t>
   </si>
+  <si>
+    <t>UL_attenuation</t>
+  </si>
+  <si>
+    <t>DL_attenuation</t>
+  </si>
+  <si>
+    <t>Dl_attenuation</t>
+  </si>
+  <si>
+    <t>UL_attenuationDL_attenuation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
     <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="167" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -525,7 +538,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -595,9 +608,25 @@
     <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -917,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F21EF5-0615-4121-83E8-517FC8180B1A}">
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F28"/>
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +964,9 @@
     <col min="12" max="12" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="15.5703125" style="38" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="19.28515625" style="38" customWidth="1"/>
-    <col min="19" max="21" width="19.28515625" style="71" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="73" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" style="74" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="70" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="38"/>
     <col min="23" max="23" width="24.28515625" style="38" customWidth="1"/>
     <col min="24" max="24" width="27.5703125" style="38" customWidth="1"/>
@@ -1000,9 +1031,11 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="67" t="s">
-        <v>89</v>
+      <c r="S1" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="72" t="s">
+        <v>92</v>
       </c>
       <c r="U1" s="67" t="s">
         <v>90</v>
@@ -1080,7 +1113,7 @@
       </c>
       <c r="L2" s="53">
         <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1854700000</v>
+        <v>1854200002.55</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -1093,7 +1126,7 @@
       </c>
       <c r="P2" s="53">
         <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1846700000</v>
+        <v>1847199997.45</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -1102,13 +1135,15 @@
         <f>C2-80</f>
         <v>1850.7</v>
       </c>
-      <c r="S2" s="70"/>
-      <c r="T2">
-        <v>1000000</v>
+      <c r="S2" s="71">
+        <v>4.87</v>
+      </c>
+      <c r="T2" s="72">
+        <v>5.0999999999999996</v>
       </c>
       <c r="U2">
         <f>T2/2</f>
-        <v>500000</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="W2" s="38">
         <v>9000</v>
@@ -1178,7 +1213,7 @@
       </c>
       <c r="L3" s="53">
         <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1854700000</v>
+        <v>1854200002.55</v>
       </c>
       <c r="M3" s="39">
         <v>150000</v>
@@ -1191,7 +1226,7 @@
       </c>
       <c r="P3" s="53">
         <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1846700000</v>
+        <v>1847199997.45</v>
       </c>
       <c r="Q3" s="39">
         <v>12750000000</v>
@@ -1200,9 +1235,13 @@
         <f t="shared" ref="R3:R28" si="0">C3-80</f>
         <v>1850.7</v>
       </c>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
+      <c r="S3" s="71">
+        <v>4.87</v>
+      </c>
+      <c r="T3" s="72">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U3" s="69"/>
       <c r="V3" s="38" t="s">
         <v>43</v>
       </c>
@@ -1277,7 +1316,7 @@
       </c>
       <c r="L4" s="53">
         <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1854700000</v>
+        <v>1854200002.55</v>
       </c>
       <c r="M4" s="39">
         <v>150000</v>
@@ -1290,7 +1329,7 @@
       </c>
       <c r="P4" s="53">
         <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1846700000</v>
+        <v>1847199997.45</v>
       </c>
       <c r="Q4" s="39">
         <v>12750000000</v>
@@ -1299,9 +1338,13 @@
         <f t="shared" si="0"/>
         <v>1850.7</v>
       </c>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
+      <c r="S4" s="71">
+        <v>4.87</v>
+      </c>
+      <c r="T4" s="72">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U4" s="69"/>
       <c r="V4" s="38" t="s">
         <v>44</v>
       </c>
@@ -1379,7 +1422,7 @@
       </c>
       <c r="L5" s="53">
         <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1865500000</v>
+        <v>1865000002.55</v>
       </c>
       <c r="M5" s="39">
         <v>150000</v>
@@ -1392,7 +1435,7 @@
       </c>
       <c r="P5" s="53">
         <f>((R5-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1840500000</v>
+        <v>1840000002.55</v>
       </c>
       <c r="Q5" s="39">
         <v>12750000000</v>
@@ -1401,9 +1444,13 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
+      <c r="S5" s="71">
+        <v>4.88</v>
+      </c>
+      <c r="T5" s="72">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U5" s="69"/>
       <c r="V5" s="38" t="s">
         <v>45</v>
       </c>
@@ -1481,7 +1528,7 @@
       </c>
       <c r="L6" s="53">
         <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1865500000</v>
+        <v>1865000002.55</v>
       </c>
       <c r="M6" s="39">
         <v>150000</v>
@@ -1494,7 +1541,7 @@
       </c>
       <c r="P6" s="53">
         <f>((R6-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1840500000</v>
+        <v>1840000002.55</v>
       </c>
       <c r="Q6" s="39">
         <v>12750000000</v>
@@ -1503,9 +1550,13 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
+      <c r="S6" s="71">
+        <v>4.88</v>
+      </c>
+      <c r="T6" s="72">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U6" s="69"/>
       <c r="AB6" s="38" t="s">
         <v>74</v>
       </c>
@@ -1571,7 +1622,7 @@
       </c>
       <c r="L7" s="53">
         <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1865500000</v>
+        <v>1865000002.55</v>
       </c>
       <c r="M7" s="39">
         <v>150000</v>
@@ -1584,7 +1635,7 @@
       </c>
       <c r="P7" s="53">
         <f>((R7-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1840500000</v>
+        <v>1840000002.55</v>
       </c>
       <c r="Q7" s="39">
         <v>12750000000</v>
@@ -1593,9 +1644,13 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
+      <c r="S7" s="71">
+        <v>4.88</v>
+      </c>
+      <c r="T7" s="72">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U7" s="69"/>
       <c r="AB7" s="38" t="s">
         <v>74</v>
       </c>
@@ -1661,7 +1716,7 @@
       </c>
       <c r="L8" s="53">
         <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1895500000</v>
+        <v>1895000002.55</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -1674,7 +1729,7 @@
       </c>
       <c r="P8" s="53">
         <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1824500000</v>
+        <v>1824999997.45</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
@@ -1683,9 +1738,13 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
+      <c r="S8" s="71">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T8" s="72">
+        <v>5.13</v>
+      </c>
+      <c r="U8" s="69"/>
       <c r="W8" s="38" t="s">
         <v>50</v>
       </c>
@@ -1761,7 +1820,7 @@
       </c>
       <c r="L9" s="53">
         <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1895500000</v>
+        <v>1895000002.55</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -1774,7 +1833,7 @@
       </c>
       <c r="P9" s="53">
         <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1824500000</v>
+        <v>1824999997.45</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
@@ -1783,9 +1842,13 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
+      <c r="S9" s="71">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T9" s="72">
+        <v>5.13</v>
+      </c>
+      <c r="U9" s="69"/>
       <c r="W9" s="38" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1917,7 @@
       </c>
       <c r="L10" s="53">
         <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1895500000</v>
+        <v>1895000002.55</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -1867,7 +1930,7 @@
       </c>
       <c r="P10" s="53">
         <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1824500000</v>
+        <v>1824999997.45</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
@@ -1876,9 +1939,13 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
+      <c r="S10" s="71">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T10" s="72">
+        <v>5.13</v>
+      </c>
+      <c r="U10" s="69"/>
       <c r="W10" s="40" t="e" cm="1">
         <f t="array" ref="W10">P</f>
         <v>#NAME?</v>
@@ -1955,7 +2022,7 @@
       </c>
       <c r="L11" s="53">
         <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1884000000</v>
+        <v>1883500002.55</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -1968,7 +2035,7 @@
       </c>
       <c r="P11" s="53">
         <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1876000000</v>
+        <v>1876499997.45</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -1977,9 +2044,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
+      <c r="S11" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T11" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U11" s="69"/>
       <c r="AB11" s="38" t="s">
         <v>74</v>
       </c>
@@ -2045,7 +2116,7 @@
       </c>
       <c r="L12" s="53">
         <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1884000000</v>
+        <v>1883500002.55</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -2058,7 +2129,7 @@
       </c>
       <c r="P12" s="53">
         <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1876000000</v>
+        <v>1876499997.45</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -2067,9 +2138,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
+      <c r="S12" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T12" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U12" s="69"/>
       <c r="AB12" s="38" t="s">
         <v>74</v>
       </c>
@@ -2135,7 +2210,7 @@
       </c>
       <c r="L13" s="53">
         <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1884000000</v>
+        <v>1883500002.55</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -2148,7 +2223,7 @@
       </c>
       <c r="P13" s="53">
         <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1876000000</v>
+        <v>1876499997.45</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -2157,9 +2232,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
+      <c r="S13" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T13" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U13" s="69"/>
       <c r="AB13" s="38" t="s">
         <v>74</v>
       </c>
@@ -2225,7 +2304,7 @@
       </c>
       <c r="L14" s="53">
         <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1893000000</v>
+        <v>1892500002.55</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -2238,7 +2317,7 @@
       </c>
       <c r="P14" s="53">
         <f>((R14-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1868000000</v>
+        <v>1867500002.55</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -2247,9 +2326,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
+      <c r="S14" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T14" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U14" s="69"/>
       <c r="AB14" s="38" t="s">
         <v>74</v>
       </c>
@@ -2315,7 +2398,7 @@
       </c>
       <c r="L15" s="53">
         <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1893000000</v>
+        <v>1892500002.55</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -2328,7 +2411,7 @@
       </c>
       <c r="P15" s="53">
         <f>((R15-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1868000000</v>
+        <v>1867500002.55</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -2337,9 +2420,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
+      <c r="S15" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T15" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U15" s="69"/>
       <c r="Y15" s="38" t="s">
         <v>52</v>
       </c>
@@ -2408,7 +2495,7 @@
       </c>
       <c r="L16" s="53">
         <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1893000000</v>
+        <v>1892500002.55</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -2421,7 +2508,7 @@
       </c>
       <c r="P16" s="53">
         <f>((R16-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1868000000</v>
+        <v>1867500002.55</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -2430,9 +2517,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
+      <c r="S16" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T16" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U16" s="69"/>
       <c r="AA16" s="38" t="s">
         <v>53</v>
       </c>
@@ -2501,7 +2592,7 @@
       </c>
       <c r="L17" s="53">
         <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1915500000</v>
+        <v>1915000002.55</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -2514,7 +2605,7 @@
       </c>
       <c r="P17" s="53">
         <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1844500000</v>
+        <v>1844999997.45</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
@@ -2523,9 +2614,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
+      <c r="S17" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T17" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U17" s="69"/>
       <c r="AA17" s="38" t="s">
         <v>54</v>
       </c>
@@ -2594,7 +2689,7 @@
       </c>
       <c r="L18" s="53">
         <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1915500000</v>
+        <v>1915000002.55</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -2607,7 +2702,7 @@
       </c>
       <c r="P18" s="53">
         <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1844500000</v>
+        <v>1844999997.45</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
@@ -2616,9 +2711,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
+      <c r="S18" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T18" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U18" s="69"/>
       <c r="AA18" s="38" t="s">
         <v>55</v>
       </c>
@@ -2687,7 +2786,7 @@
       </c>
       <c r="L19" s="53">
         <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1915500000</v>
+        <v>1915000002.55</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -2700,7 +2799,7 @@
       </c>
       <c r="P19" s="53">
         <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1844500000</v>
+        <v>1844999997.45</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
@@ -2709,9 +2808,13 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
+      <c r="S19" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="T19" s="72">
+        <v>5.18</v>
+      </c>
+      <c r="U19" s="69"/>
       <c r="AA19" s="38" t="s">
         <v>56</v>
       </c>
@@ -2780,7 +2883,7 @@
       </c>
       <c r="L20" s="53">
         <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1913300000</v>
+        <v>1912800002.55</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -2793,7 +2896,7 @@
       </c>
       <c r="P20" s="53">
         <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1905300000</v>
+        <v>1905799997.45</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
@@ -2802,9 +2905,13 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
+      <c r="S20" s="71">
+        <v>5.04</v>
+      </c>
+      <c r="T20" s="72">
+        <v>5.27</v>
+      </c>
+      <c r="U20" s="69"/>
       <c r="Y20" s="38" t="s">
         <v>57</v>
       </c>
@@ -2873,7 +2980,7 @@
       </c>
       <c r="L21" s="53">
         <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1913300000</v>
+        <v>1912800002.55</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -2886,7 +2993,7 @@
       </c>
       <c r="P21" s="53">
         <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1905300000</v>
+        <v>1905799997.45</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
@@ -2895,9 +3002,13 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
+      <c r="S21" s="71">
+        <v>5.04</v>
+      </c>
+      <c r="T21" s="72">
+        <v>5.27</v>
+      </c>
+      <c r="U21" s="69"/>
       <c r="AA21" s="38" t="s">
         <v>58</v>
       </c>
@@ -2966,7 +3077,7 @@
       </c>
       <c r="L22" s="53">
         <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1913300000</v>
+        <v>1912800002.55</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -2979,7 +3090,7 @@
       </c>
       <c r="P22" s="53">
         <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1905300000</v>
+        <v>1905799997.45</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
@@ -2988,9 +3099,13 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
+      <c r="S22" s="71">
+        <v>5.04</v>
+      </c>
+      <c r="T22" s="72">
+        <v>5.27</v>
+      </c>
+      <c r="U22" s="69"/>
       <c r="AA22" s="38" t="s">
         <v>59</v>
       </c>
@@ -3059,7 +3174,7 @@
       </c>
       <c r="L23" s="53">
         <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1920500000</v>
+        <v>1920000002.55</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -3072,7 +3187,7 @@
       </c>
       <c r="P23" s="53">
         <f>((R23-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1895500000</v>
+        <v>1895000002.55</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
@@ -3081,9 +3196,13 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
+      <c r="S23" s="71">
+        <v>5.03</v>
+      </c>
+      <c r="T23" s="72">
+        <v>5.26</v>
+      </c>
+      <c r="U23" s="69"/>
       <c r="AA23" s="38" t="s">
         <v>60</v>
       </c>
@@ -3152,7 +3271,7 @@
       </c>
       <c r="L24" s="53">
         <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1920500000</v>
+        <v>1920000002.55</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -3165,7 +3284,7 @@
       </c>
       <c r="P24" s="53">
         <f>((R24-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1895500000</v>
+        <v>1895000002.55</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
@@ -3174,9 +3293,13 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
+      <c r="S24" s="71">
+        <v>5.03</v>
+      </c>
+      <c r="T24" s="72">
+        <v>5.26</v>
+      </c>
+      <c r="U24" s="69"/>
       <c r="AA24" s="38" t="s">
         <v>61</v>
       </c>
@@ -3245,7 +3368,7 @@
       </c>
       <c r="L25" s="53">
         <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1920500000</v>
+        <v>1920000002.55</v>
       </c>
       <c r="M25" s="39">
         <v>150000</v>
@@ -3258,7 +3381,7 @@
       </c>
       <c r="P25" s="53">
         <f>((R25-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1895500000</v>
+        <v>1895000002.55</v>
       </c>
       <c r="Q25" s="39">
         <v>12750000000</v>
@@ -3267,9 +3390,13 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
+      <c r="S25" s="71">
+        <v>5.03</v>
+      </c>
+      <c r="T25" s="72">
+        <v>5.26</v>
+      </c>
+      <c r="U25" s="69"/>
       <c r="AB25" s="38" t="s">
         <v>74</v>
       </c>
@@ -3335,7 +3462,7 @@
       </c>
       <c r="L26" s="53">
         <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1935500000</v>
+        <v>1935000002.55</v>
       </c>
       <c r="M26" s="39">
         <v>150000</v>
@@ -3348,7 +3475,7 @@
       </c>
       <c r="P26" s="53">
         <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1864500000</v>
+        <v>1864999997.45</v>
       </c>
       <c r="Q26" s="39">
         <v>12750000000</v>
@@ -3357,9 +3484,13 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
+      <c r="S26" s="71">
+        <v>5.01</v>
+      </c>
+      <c r="T26" s="72">
+        <v>5.24</v>
+      </c>
+      <c r="U26" s="69"/>
       <c r="AA26" s="38" t="s">
         <v>62</v>
       </c>
@@ -3428,7 +3559,7 @@
       </c>
       <c r="L27" s="53">
         <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1935500000</v>
+        <v>1935000002.55</v>
       </c>
       <c r="M27" s="39">
         <v>150000</v>
@@ -3441,7 +3572,7 @@
       </c>
       <c r="P27" s="53">
         <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1864500000</v>
+        <v>1864999997.45</v>
       </c>
       <c r="Q27" s="39">
         <v>12750000000</v>
@@ -3450,9 +3581,13 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
+      <c r="S27" s="71">
+        <v>5.01</v>
+      </c>
+      <c r="T27" s="72">
+        <v>5.24</v>
+      </c>
+      <c r="U27" s="69"/>
       <c r="AA27" s="38" t="s">
         <v>63</v>
       </c>
@@ -3521,7 +3656,7 @@
       </c>
       <c r="L28" s="53">
         <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1935500000</v>
+        <v>1935000002.55</v>
       </c>
       <c r="M28" s="39">
         <v>150000</v>
@@ -3534,7 +3669,7 @@
       </c>
       <c r="P28" s="53">
         <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1864500000</v>
+        <v>1864999997.45</v>
       </c>
       <c r="Q28" s="39">
         <v>12750000000</v>
@@ -3543,9 +3678,13 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
+      <c r="S28" s="71">
+        <v>5.01</v>
+      </c>
+      <c r="T28" s="72">
+        <v>5.24</v>
+      </c>
+      <c r="U28" s="69"/>
       <c r="AB28" s="38" t="s">
         <v>74</v>
       </c>
@@ -3589,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F8828-1D8C-4AAA-81FD-7AC3397EB1C9}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3613,9 +3752,10 @@
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.85546875" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3670,14 +3810,20 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="W1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>4</v>
       </c>
@@ -3712,7 +3858,7 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="56">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M2" s="39">
@@ -3725,7 +3871,7 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q2" s="39">
@@ -3735,15 +3881,21 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="76">
+        <v>4.47</v>
+      </c>
+      <c r="T2" s="76">
+        <v>5.61</v>
+      </c>
+      <c r="V2">
         <v>1000000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="W2">
+        <f>V2/2</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -3776,7 +3928,7 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="56">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M3" s="39">
@@ -3789,7 +3941,7 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q3" s="39">
@@ -3799,8 +3951,14 @@
         <f t="shared" ref="R3:R28" si="0">C3-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="76">
+        <v>4.47</v>
+      </c>
+      <c r="T3" s="76">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -3833,7 +3991,7 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="56">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M4" s="39">
@@ -3846,7 +4004,7 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q4" s="39">
@@ -3856,8 +4014,14 @@
         <f t="shared" si="0"/>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="76">
+        <v>4.47</v>
+      </c>
+      <c r="T4" s="76">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -3890,7 +4054,7 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="56">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1725500000</v>
       </c>
       <c r="M5" s="39">
@@ -3903,7 +4067,7 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q5" s="39">
@@ -3913,8 +4077,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="76">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T5" s="76">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -3947,7 +4117,7 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="56">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1725500000</v>
       </c>
       <c r="M6" s="39">
@@ -3960,7 +4130,7 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q6" s="39">
@@ -3970,8 +4140,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="76">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T6" s="76">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -4004,7 +4180,7 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="56">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1725500000</v>
       </c>
       <c r="M7" s="39">
@@ -4017,7 +4193,7 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q7" s="39">
@@ -4027,8 +4203,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="76">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T7" s="76">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="42">
         <v>1.4</v>
@@ -4061,7 +4243,7 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="56">
-        <f>((R8+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1736500000</v>
       </c>
       <c r="M8" s="39">
@@ -4074,7 +4256,7 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1728500000</v>
       </c>
       <c r="Q8" s="39">
@@ -4084,8 +4266,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="76">
+        <v>4.5</v>
+      </c>
+      <c r="T8" s="76">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="42">
         <v>1.4</v>
@@ -4118,7 +4306,7 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="56">
-        <f>((R9+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1736500000</v>
       </c>
       <c r="M9" s="39">
@@ -4131,7 +4319,7 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1728500000</v>
       </c>
       <c r="Q9" s="39">
@@ -4141,8 +4329,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="76">
+        <v>4.5</v>
+      </c>
+      <c r="T9" s="76">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="42">
         <v>1.4</v>
@@ -4175,7 +4369,7 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="56">
-        <f>((R10+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1736500000</v>
       </c>
       <c r="M10" s="39">
@@ -4188,7 +4382,7 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1728500000</v>
       </c>
       <c r="Q10" s="39">
@@ -4198,8 +4392,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="76">
+        <v>4.5</v>
+      </c>
+      <c r="T10" s="76">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>5</v>
@@ -4232,7 +4432,7 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="56">
-        <f>((R11+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1745500000</v>
       </c>
       <c r="M11" s="39">
@@ -4245,7 +4445,7 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1719500000</v>
       </c>
       <c r="Q11" s="39">
@@ -4255,8 +4455,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T11" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>5</v>
@@ -4289,7 +4495,7 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="56">
-        <f>((R12+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1745500000</v>
       </c>
       <c r="M12" s="39">
@@ -4302,7 +4508,7 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1719500000</v>
       </c>
       <c r="Q12" s="39">
@@ -4312,8 +4518,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T12" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>5</v>
@@ -4346,7 +4558,7 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="56">
-        <f>((R13+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1745500000</v>
       </c>
       <c r="M13" s="39">
@@ -4359,7 +4571,7 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1719500000</v>
       </c>
       <c r="Q13" s="39">
@@ -4369,8 +4581,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T13" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>20</v>
@@ -4403,7 +4621,7 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="56">
-        <f>((R14+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R14+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1768000000</v>
       </c>
       <c r="M14" s="39">
@@ -4416,7 +4634,7 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="53">
-        <f>((R14-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R14-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1697000000</v>
       </c>
       <c r="Q14" s="39">
@@ -4426,8 +4644,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T14" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>20</v>
@@ -4460,7 +4684,7 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="56">
-        <f>((R15+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R15+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1768000000</v>
       </c>
       <c r="M15" s="39">
@@ -4473,7 +4697,7 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="53">
-        <f>((R15-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R15-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1697000000</v>
       </c>
       <c r="Q15" s="39">
@@ -4483,8 +4707,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T15" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>20</v>
@@ -4517,7 +4747,7 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="56">
-        <f>((R16+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R16+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1768000000</v>
       </c>
       <c r="M16" s="39">
@@ -4530,7 +4760,7 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="53">
-        <f>((R16-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R16-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1697000000</v>
       </c>
       <c r="Q16" s="39">
@@ -4540,8 +4770,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T16" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="45">
         <v>1.4</v>
@@ -4574,7 +4810,7 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="56">
-        <f>((R17+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R17+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1758300000.0000002</v>
       </c>
       <c r="M17" s="39">
@@ -4587,7 +4823,7 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R17-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1750300000.0000002</v>
       </c>
       <c r="Q17" s="39">
@@ -4597,8 +4833,14 @@
         <f t="shared" si="0"/>
         <v>1754.3000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T17" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="45">
         <v>1.4</v>
@@ -4631,7 +4873,7 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="56">
-        <f>((R18+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R18+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1758300000.0000002</v>
       </c>
       <c r="M18" s="39">
@@ -4644,7 +4886,7 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R18-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1750300000.0000002</v>
       </c>
       <c r="Q18" s="39">
@@ -4654,8 +4896,14 @@
         <f t="shared" si="0"/>
         <v>1754.3000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T18" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="45">
         <v>1.4</v>
@@ -4688,7 +4936,7 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="56">
-        <f>((R19+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R19+'Frequency Range Setting'!$B$2)*1000000)+$W$2</f>
         <v>1758300000.0000002</v>
       </c>
       <c r="M19" s="39">
@@ -4701,7 +4949,7 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R19-'Frequency Range Setting'!$B$2)*1000000)-$W$2</f>
         <v>1750300000.0000002</v>
       </c>
       <c r="Q19" s="39">
@@ -4711,8 +4959,14 @@
         <f t="shared" si="0"/>
         <v>1754.3000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="76">
+        <v>4.53</v>
+      </c>
+      <c r="T19" s="76">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>5</v>
@@ -4745,7 +4999,7 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="56">
-        <f>((R20+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R20+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1765500000</v>
       </c>
       <c r="M20" s="39">
@@ -4758,7 +5012,7 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R20-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1739500000</v>
       </c>
       <c r="Q20" s="39">
@@ -4768,8 +5022,14 @@
         <f t="shared" si="0"/>
         <v>1752.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T20" s="76">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>5</v>
@@ -4802,7 +5062,7 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="56">
-        <f>((R21+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R21+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1765500000</v>
       </c>
       <c r="M21" s="39">
@@ -4815,7 +5075,7 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R21-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1739500000</v>
       </c>
       <c r="Q21" s="39">
@@ -4825,8 +5085,14 @@
         <f t="shared" si="0"/>
         <v>1752.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T21" s="76">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="39">
         <v>20</v>
@@ -4859,7 +5125,7 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="56">
-        <f>((R22+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R22+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1755500000</v>
       </c>
       <c r="M22" s="39">
@@ -4872,7 +5138,7 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R22-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q22" s="39">
@@ -4882,8 +5148,14 @@
         <f>C22-400</f>
         <v>1720</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T22" s="76">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="39">
         <v>20</v>
@@ -4916,7 +5188,7 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="56">
-        <f>((R23+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R23+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1755500000</v>
       </c>
       <c r="M23" s="39">
@@ -4929,7 +5201,7 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="53">
-        <f>((R23-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R23-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q23" s="39">
@@ -4939,8 +5211,14 @@
         <f>C23-400</f>
         <v>1720</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="76">
+        <v>4.59</v>
+      </c>
+      <c r="T23" s="76">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="39">
         <v>20</v>
@@ -4973,7 +5251,7 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="56">
-        <f>((R24+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R24+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1755500000</v>
       </c>
       <c r="M24" s="39">
@@ -4986,7 +5264,7 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="53">
-        <f>((R24-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R24-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q24" s="39">
@@ -4996,8 +5274,14 @@
         <f>C24-400</f>
         <v>1720</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="76">
+        <v>4.59</v>
+      </c>
+      <c r="T24" s="76">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -5030,7 +5314,7 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="56">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$W$2</f>
         <v>1765500000</v>
       </c>
       <c r="M25" s="39">
@@ -5043,7 +5327,7 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="53">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$W$2</f>
         <v>1739500000</v>
       </c>
       <c r="Q25" s="39">
@@ -5053,8 +5337,14 @@
         <f t="shared" si="0"/>
         <v>1752.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="76">
+        <v>4.59</v>
+      </c>
+      <c r="T25" s="76">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>20</v>
@@ -5087,7 +5377,7 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="56">
-        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1780500000</v>
       </c>
       <c r="M26" s="39">
@@ -5100,7 +5390,7 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q26" s="39">
@@ -5110,8 +5400,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T26" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>20</v>
@@ -5144,7 +5440,7 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="56">
-        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1780500000</v>
       </c>
       <c r="M27" s="39">
@@ -5157,7 +5453,7 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q27" s="39">
@@ -5167,8 +5463,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T27" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>20</v>
@@ -5201,7 +5503,7 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="56">
-        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$W$2</f>
         <v>1780500000</v>
       </c>
       <c r="M28" s="39">
@@ -5214,7 +5516,7 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$W$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q28" s="39">
@@ -5223,6 +5525,12 @@
       <c r="R28" s="57">
         <f t="shared" si="0"/>
         <v>1745</v>
+      </c>
+      <c r="S28" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T28" s="76">
+        <v>5.71</v>
       </c>
     </row>
   </sheetData>
@@ -5232,10 +5540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8596D56-7C71-4D72-A666-9CAEA981CBE7}">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F28"/>
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,9 +5565,10 @@
     <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5314,14 +5623,20 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>5</v>
       </c>
@@ -5353,7 +5668,7 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>828250000</v>
       </c>
       <c r="L2" s="39">
@@ -5366,7 +5681,7 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>821150000</v>
       </c>
       <c r="P2" s="39">
@@ -5379,15 +5694,21 @@
         <f>(C2-45)</f>
         <v>824.7</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="76">
+        <v>1.93</v>
+      </c>
+      <c r="T2" s="76">
+        <v>2.06</v>
+      </c>
+      <c r="U2">
         <v>100000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="65">
         <v>1.4</v>
@@ -5417,7 +5738,7 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>828250000</v>
       </c>
       <c r="L3" s="39">
@@ -5430,7 +5751,7 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>821150000</v>
       </c>
       <c r="P3" s="39">
@@ -5443,8 +5764,14 @@
         <f t="shared" ref="R3:R28" si="0">(C3-45)</f>
         <v>824.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="76">
+        <v>1.93</v>
+      </c>
+      <c r="T3" s="76">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="65">
         <v>1.4</v>
@@ -5474,7 +5801,7 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>828250000</v>
       </c>
       <c r="L4" s="39">
@@ -5487,7 +5814,7 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>821150000</v>
       </c>
       <c r="P4" s="39">
@@ -5500,8 +5827,14 @@
         <f t="shared" si="0"/>
         <v>824.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="76">
+        <v>1.93</v>
+      </c>
+      <c r="T4" s="76">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="65">
         <v>5</v>
@@ -5531,7 +5864,7 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>839050000</v>
       </c>
       <c r="L5" s="39">
@@ -5544,7 +5877,7 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>813950000</v>
       </c>
       <c r="P5" s="39">
@@ -5557,8 +5890,14 @@
         <f t="shared" si="0"/>
         <v>826.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="76">
+        <v>1.94</v>
+      </c>
+      <c r="T5" s="76">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="65">
         <v>5</v>
@@ -5588,7 +5927,7 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>839050000</v>
       </c>
       <c r="L6" s="39">
@@ -5601,7 +5940,7 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>813950000</v>
       </c>
       <c r="P6" s="39">
@@ -5614,8 +5953,14 @@
         <f t="shared" si="0"/>
         <v>826.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="76">
+        <v>1.94</v>
+      </c>
+      <c r="T6" s="76">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="65">
         <v>5</v>
@@ -5645,7 +5990,7 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>839050000</v>
       </c>
       <c r="L7" s="39">
@@ -5658,7 +6003,7 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>813950000</v>
       </c>
       <c r="P7" s="39">
@@ -5671,8 +6016,14 @@
         <f t="shared" si="0"/>
         <v>826.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="76">
+        <v>1.94</v>
+      </c>
+      <c r="T7" s="76">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="65">
         <v>10</v>
@@ -5702,7 +6053,7 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L8" s="39">
@@ -5715,7 +6066,7 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>808950000</v>
       </c>
       <c r="P8" s="39">
@@ -5728,8 +6079,14 @@
         <f t="shared" si="0"/>
         <v>829</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="76">
+        <v>1.95</v>
+      </c>
+      <c r="T8" s="76">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="65">
         <v>10</v>
@@ -5759,7 +6116,7 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L9" s="39">
@@ -5772,7 +6129,7 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>808950000</v>
       </c>
       <c r="P9" s="39">
@@ -5785,8 +6142,14 @@
         <f t="shared" si="0"/>
         <v>829</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="76">
+        <v>1.95</v>
+      </c>
+      <c r="T9" s="76">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="65">
         <v>10</v>
@@ -5816,7 +6179,7 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L10" s="39">
@@ -5829,7 +6192,7 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>808950000</v>
       </c>
       <c r="P10" s="39">
@@ -5842,8 +6205,14 @@
         <f t="shared" si="0"/>
         <v>829</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="76">
+        <v>1.95</v>
+      </c>
+      <c r="T10" s="76">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="65">
         <v>1.4</v>
@@ -5873,7 +6242,7 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>840050000</v>
       </c>
       <c r="L11" s="39">
@@ -5886,7 +6255,7 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>832950000</v>
       </c>
       <c r="P11" s="39">
@@ -5899,8 +6268,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T11" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="65">
         <v>1.4</v>
@@ -5930,7 +6305,7 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>840050000</v>
       </c>
       <c r="L12" s="39">
@@ -5943,7 +6318,7 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>832950000</v>
       </c>
       <c r="P12" s="39">
@@ -5956,8 +6331,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T12" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="65">
         <v>1.4</v>
@@ -5987,7 +6368,7 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>840050000</v>
       </c>
       <c r="L13" s="39">
@@ -6000,7 +6381,7 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>832950000</v>
       </c>
       <c r="P13" s="39">
@@ -6013,8 +6394,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T13" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="65">
         <v>5</v>
@@ -6044,7 +6431,7 @@
         <v>30000000</v>
       </c>
       <c r="K14" s="53">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L14" s="39">
@@ -6057,7 +6444,7 @@
         <v>30000000</v>
       </c>
       <c r="O14" s="53">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P14" s="39">
@@ -6070,8 +6457,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T14" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="65">
         <v>5</v>
@@ -6101,7 +6494,7 @@
         <v>30000000</v>
       </c>
       <c r="K15" s="53">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L15" s="39">
@@ -6114,7 +6507,7 @@
         <v>30000000</v>
       </c>
       <c r="O15" s="53">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P15" s="39">
@@ -6127,8 +6520,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T15" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
       <c r="B16" s="65">
         <v>5</v>
@@ -6158,7 +6557,7 @@
         <v>30000000</v>
       </c>
       <c r="K16" s="53">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L16" s="39">
@@ -6171,7 +6570,7 @@
         <v>30000000</v>
       </c>
       <c r="O16" s="53">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P16" s="39">
@@ -6184,8 +6583,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T16" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="64"/>
       <c r="B17" s="65">
         <v>10</v>
@@ -6215,7 +6620,7 @@
         <v>30000000</v>
       </c>
       <c r="K17" s="53">
-        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>856550000</v>
       </c>
       <c r="L17" s="39">
@@ -6228,7 +6633,7 @@
         <v>30000000</v>
       </c>
       <c r="O17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>816450000</v>
       </c>
       <c r="P17" s="39">
@@ -6241,8 +6646,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T17" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="64"/>
       <c r="B18" s="65">
         <v>10</v>
@@ -6272,7 +6683,7 @@
         <v>30000000</v>
       </c>
       <c r="K18" s="53">
-        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>856550000</v>
       </c>
       <c r="L18" s="39">
@@ -6285,7 +6696,7 @@
         <v>30000000</v>
       </c>
       <c r="O18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>816450000</v>
       </c>
       <c r="P18" s="39">
@@ -6298,8 +6709,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T18" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="65">
         <v>10</v>
@@ -6329,7 +6746,7 @@
         <v>30000000</v>
       </c>
       <c r="K19" s="53">
-        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>856550000</v>
       </c>
       <c r="L19" s="39">
@@ -6342,7 +6759,7 @@
         <v>30000000</v>
       </c>
       <c r="O19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>816450000</v>
       </c>
       <c r="P19" s="39">
@@ -6355,8 +6772,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="76">
+        <v>1.97</v>
+      </c>
+      <c r="T19" s="76">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="64"/>
       <c r="B20" s="65">
         <v>1.4</v>
@@ -6386,7 +6809,7 @@
         <v>30000000</v>
       </c>
       <c r="K20" s="53">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>851850000</v>
       </c>
       <c r="L20" s="39">
@@ -6399,7 +6822,7 @@
         <v>30000000</v>
       </c>
       <c r="O20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>844750000</v>
       </c>
       <c r="P20" s="39">
@@ -6412,8 +6835,14 @@
         <f t="shared" si="0"/>
         <v>848.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="76">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T20" s="76">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="64"/>
       <c r="B21" s="65">
         <v>1.4</v>
@@ -6443,7 +6872,7 @@
         <v>30000000</v>
       </c>
       <c r="K21" s="53">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>851850000</v>
       </c>
       <c r="L21" s="39">
@@ -6456,7 +6885,7 @@
         <v>30000000</v>
       </c>
       <c r="O21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>844750000</v>
       </c>
       <c r="P21" s="39">
@@ -6469,8 +6898,14 @@
         <f t="shared" si="0"/>
         <v>848.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="76">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T21" s="76">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="64"/>
       <c r="B22" s="65">
         <v>1.4</v>
@@ -6500,7 +6935,7 @@
         <v>30000000</v>
       </c>
       <c r="K22" s="53">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>851850000</v>
       </c>
       <c r="L22" s="39">
@@ -6513,7 +6948,7 @@
         <v>30000000</v>
       </c>
       <c r="O22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>844750000</v>
       </c>
       <c r="P22" s="39">
@@ -6526,8 +6961,14 @@
         <f t="shared" si="0"/>
         <v>848.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="76">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T22" s="76">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
       <c r="B23" s="65">
         <v>5</v>
@@ -6557,7 +6998,7 @@
         <v>30000000</v>
       </c>
       <c r="K23" s="53">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>859050000</v>
       </c>
       <c r="L23" s="39">
@@ -6570,7 +7011,7 @@
         <v>30000000</v>
       </c>
       <c r="O23" s="53">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>833950000</v>
       </c>
       <c r="P23" s="39">
@@ -6583,8 +7024,14 @@
         <f t="shared" si="0"/>
         <v>846.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="76">
+        <v>2</v>
+      </c>
+      <c r="T23" s="76">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="64"/>
       <c r="B24" s="65">
         <v>5</v>
@@ -6614,7 +7061,7 @@
         <v>30000000</v>
       </c>
       <c r="K24" s="53">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>859050000</v>
       </c>
       <c r="L24" s="39">
@@ -6627,7 +7074,7 @@
         <v>30000000</v>
       </c>
       <c r="O24" s="53">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>833950000</v>
       </c>
       <c r="P24" s="39">
@@ -6640,8 +7087,14 @@
         <f t="shared" si="0"/>
         <v>846.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="76">
+        <v>2</v>
+      </c>
+      <c r="T24" s="76">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="64"/>
       <c r="B25" s="65">
         <v>5</v>
@@ -6671,7 +7124,7 @@
         <v>30000000</v>
       </c>
       <c r="K25" s="53">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>859050000</v>
       </c>
       <c r="L25" s="39">
@@ -6684,7 +7137,7 @@
         <v>30000000</v>
       </c>
       <c r="O25" s="53">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>833950000</v>
       </c>
       <c r="P25" s="39">
@@ -6697,8 +7150,14 @@
         <f t="shared" si="0"/>
         <v>846.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="76">
+        <v>2</v>
+      </c>
+      <c r="T25" s="76">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="65">
         <v>10</v>
@@ -6728,7 +7187,7 @@
         <v>30000000</v>
       </c>
       <c r="K26" s="53">
-        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>864050000</v>
       </c>
       <c r="L26" s="39">
@@ -6741,7 +7200,7 @@
         <v>30000000</v>
       </c>
       <c r="O26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P26" s="39">
@@ -6754,8 +7213,14 @@
         <f t="shared" si="0"/>
         <v>844</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="76">
+        <v>1.99</v>
+      </c>
+      <c r="T26" s="76">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="65">
         <v>10</v>
@@ -6785,7 +7250,7 @@
         <v>30000000</v>
       </c>
       <c r="K27" s="53">
-        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>864050000</v>
       </c>
       <c r="L27" s="39">
@@ -6798,7 +7263,7 @@
         <v>30000000</v>
       </c>
       <c r="O27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P27" s="39">
@@ -6811,8 +7276,14 @@
         <f t="shared" si="0"/>
         <v>844</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="76">
+        <v>1.99</v>
+      </c>
+      <c r="T27" s="76">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="64"/>
       <c r="B28" s="65">
         <v>10</v>
@@ -6842,7 +7313,7 @@
         <v>30000000</v>
       </c>
       <c r="K28" s="53">
-        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>864050000</v>
       </c>
       <c r="L28" s="39">
@@ -6855,7 +7326,7 @@
         <v>30000000</v>
       </c>
       <c r="O28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P28" s="39">
@@ -6868,14 +7339,20 @@
         <f t="shared" si="0"/>
         <v>844</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="76">
+        <v>1.99</v>
+      </c>
+      <c r="T28" s="76">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K29" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
@@ -6901,10 +7378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108741B-A8D0-4BB3-B12C-6B68B68001DF}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F28"/>
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6926,9 +7403,10 @@
     <col min="16" max="16" width="18.140625" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -6983,14 +7461,20 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>12</v>
       </c>
@@ -7022,7 +7506,7 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>703250000</v>
       </c>
       <c r="L2" s="39">
@@ -7035,7 +7519,7 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>696150000</v>
       </c>
       <c r="P2" s="39">
@@ -7048,15 +7532,21 @@
         <f>C2-30</f>
         <v>699.7</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="76">
+        <v>1.58</v>
+      </c>
+      <c r="T2" s="76">
+        <v>1.66</v>
+      </c>
+      <c r="U2">
         <v>100000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -7086,7 +7576,7 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>703250000</v>
       </c>
       <c r="L3" s="39">
@@ -7099,7 +7589,7 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>696150000</v>
       </c>
       <c r="P3" s="39">
@@ -7112,8 +7602,14 @@
         <f t="shared" ref="R3:R28" si="0">C3-30</f>
         <v>699.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="76">
+        <v>1.58</v>
+      </c>
+      <c r="T3" s="76">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -7143,7 +7639,7 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>703250000</v>
       </c>
       <c r="L4" s="39">
@@ -7156,7 +7652,7 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>696150000</v>
       </c>
       <c r="P4" s="39">
@@ -7169,8 +7665,14 @@
         <f t="shared" si="0"/>
         <v>699.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="76">
+        <v>1.58</v>
+      </c>
+      <c r="T4" s="76">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -7200,7 +7702,7 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>714050000</v>
       </c>
       <c r="L5" s="39">
@@ -7213,7 +7715,7 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>688950000</v>
       </c>
       <c r="P5" s="39">
@@ -7226,8 +7728,14 @@
         <f t="shared" si="0"/>
         <v>701.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="76">
+        <v>1.59</v>
+      </c>
+      <c r="T5" s="76">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -7257,7 +7765,7 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>714050000</v>
       </c>
       <c r="L6" s="39">
@@ -7270,7 +7778,7 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>688950000</v>
       </c>
       <c r="P6" s="39">
@@ -7283,8 +7791,14 @@
         <f t="shared" si="0"/>
         <v>701.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="76">
+        <v>1.59</v>
+      </c>
+      <c r="T6" s="76">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -7314,7 +7828,7 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>714050000</v>
       </c>
       <c r="L7" s="39">
@@ -7327,7 +7841,7 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>688950000</v>
       </c>
       <c r="P7" s="39">
@@ -7340,8 +7854,14 @@
         <f t="shared" si="0"/>
         <v>701.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="76">
+        <v>1.59</v>
+      </c>
+      <c r="T7" s="76">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>10</v>
@@ -7371,7 +7891,7 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>724050000</v>
       </c>
       <c r="L8" s="39">
@@ -7384,7 +7904,7 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>683950000</v>
       </c>
       <c r="P8" s="39">
@@ -7397,8 +7917,14 @@
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="76">
+        <v>1.6</v>
+      </c>
+      <c r="T8" s="76">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>10</v>
@@ -7428,7 +7954,7 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>724050000</v>
       </c>
       <c r="L9" s="39">
@@ -7441,7 +7967,7 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>683950000</v>
       </c>
       <c r="P9" s="39">
@@ -7454,8 +7980,14 @@
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="76">
+        <v>1.6</v>
+      </c>
+      <c r="T9" s="76">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>10</v>
@@ -7485,7 +8017,7 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>724050000</v>
       </c>
       <c r="L10" s="39">
@@ -7498,7 +8030,7 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>683950000</v>
       </c>
       <c r="P10" s="39">
@@ -7511,8 +8043,14 @@
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="76">
+        <v>1.6</v>
+      </c>
+      <c r="T10" s="76">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -7542,7 +8080,7 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>711050000</v>
       </c>
       <c r="L11" s="39">
@@ -7555,7 +8093,7 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>703950000</v>
       </c>
       <c r="P11" s="39">
@@ -7568,8 +8106,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T11" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -7599,7 +8143,7 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>711050000</v>
       </c>
       <c r="L12" s="39">
@@ -7612,7 +8156,7 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>703950000</v>
       </c>
       <c r="P12" s="39">
@@ -7625,8 +8169,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T12" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -7656,7 +8206,7 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>711050000</v>
       </c>
       <c r="L13" s="39">
@@ -7669,7 +8219,7 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>703950000</v>
       </c>
       <c r="P13" s="39">
@@ -7682,8 +8232,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T13" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -7713,7 +8269,7 @@
         <v>30000000</v>
       </c>
       <c r="K14" s="53">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>720050000</v>
       </c>
       <c r="L14" s="39">
@@ -7726,7 +8282,7 @@
         <v>30000000</v>
       </c>
       <c r="O14" s="53">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>694950000</v>
       </c>
       <c r="P14" s="39">
@@ -7739,8 +8295,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T14" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -7770,7 +8332,7 @@
         <v>30000000</v>
       </c>
       <c r="K15" s="53">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>720050000</v>
       </c>
       <c r="L15" s="39">
@@ -7783,7 +8345,7 @@
         <v>30000000</v>
       </c>
       <c r="O15" s="53">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>694950000</v>
       </c>
       <c r="P15" s="39">
@@ -7796,8 +8358,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T15" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -7827,7 +8395,7 @@
         <v>30000000</v>
       </c>
       <c r="K16" s="53">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>720050000</v>
       </c>
       <c r="L16" s="39">
@@ -7840,7 +8408,7 @@
         <v>30000000</v>
       </c>
       <c r="O16" s="53">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>694950000</v>
       </c>
       <c r="P16" s="39">
@@ -7853,8 +8421,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T16" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>10</v>
@@ -7884,7 +8458,7 @@
         <v>30000000</v>
       </c>
       <c r="K17" s="53">
-        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>727550000</v>
       </c>
       <c r="L17" s="39">
@@ -7897,7 +8471,7 @@
         <v>30000000</v>
       </c>
       <c r="O17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>687450000</v>
       </c>
       <c r="P17" s="39">
@@ -7910,8 +8484,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T17" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>10</v>
@@ -7941,7 +8521,7 @@
         <v>30000000</v>
       </c>
       <c r="K18" s="53">
-        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>727550000</v>
       </c>
       <c r="L18" s="39">
@@ -7954,7 +8534,7 @@
         <v>30000000</v>
       </c>
       <c r="O18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>687450000</v>
       </c>
       <c r="P18" s="39">
@@ -7967,8 +8547,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T18" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>10</v>
@@ -7998,7 +8584,7 @@
         <v>30000000</v>
       </c>
       <c r="K19" s="53">
-        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>727550000</v>
       </c>
       <c r="L19" s="39">
@@ -8011,7 +8597,7 @@
         <v>30000000</v>
       </c>
       <c r="O19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>687450000</v>
       </c>
       <c r="P19" s="39">
@@ -8024,8 +8610,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T19" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -8055,7 +8647,7 @@
         <v>30000000</v>
       </c>
       <c r="K20" s="53">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>718850000</v>
       </c>
       <c r="L20" s="39">
@@ -8068,7 +8660,7 @@
         <v>30000000</v>
       </c>
       <c r="O20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>711750000</v>
       </c>
       <c r="P20" s="39">
@@ -8081,8 +8673,14 @@
         <f t="shared" si="0"/>
         <v>715.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="76">
+        <v>1.63</v>
+      </c>
+      <c r="T20" s="76">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -8112,7 +8710,7 @@
         <v>30000000</v>
       </c>
       <c r="K21" s="53">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>718850000</v>
       </c>
       <c r="L21" s="39">
@@ -8125,7 +8723,7 @@
         <v>30000000</v>
       </c>
       <c r="O21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>711750000</v>
       </c>
       <c r="P21" s="39">
@@ -8138,8 +8736,14 @@
         <f t="shared" si="0"/>
         <v>715.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="76">
+        <v>1.63</v>
+      </c>
+      <c r="T21" s="76">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -8169,7 +8773,7 @@
         <v>30000000</v>
       </c>
       <c r="K22" s="53">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>718850000</v>
       </c>
       <c r="L22" s="39">
@@ -8182,7 +8786,7 @@
         <v>30000000</v>
       </c>
       <c r="O22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>711750000</v>
       </c>
       <c r="P22" s="39">
@@ -8195,8 +8799,14 @@
         <f t="shared" si="0"/>
         <v>715.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="76">
+        <v>1.63</v>
+      </c>
+      <c r="T22" s="76">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -8226,7 +8836,7 @@
         <v>30000000</v>
       </c>
       <c r="K23" s="53">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>726050000</v>
       </c>
       <c r="L23" s="39">
@@ -8239,7 +8849,7 @@
         <v>30000000</v>
       </c>
       <c r="O23" s="53">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>700950000</v>
       </c>
       <c r="P23" s="39">
@@ -8252,8 +8862,14 @@
         <f t="shared" si="0"/>
         <v>713.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="76">
+        <v>1.62</v>
+      </c>
+      <c r="T23" s="76">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -8283,7 +8899,7 @@
         <v>30000000</v>
       </c>
       <c r="K24" s="53">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>726050000</v>
       </c>
       <c r="L24" s="39">
@@ -8296,7 +8912,7 @@
         <v>30000000</v>
       </c>
       <c r="O24" s="53">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>700950000</v>
       </c>
       <c r="P24" s="39">
@@ -8309,8 +8925,14 @@
         <f t="shared" si="0"/>
         <v>713.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="76">
+        <v>1.62</v>
+      </c>
+      <c r="T24" s="76">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -8340,7 +8962,7 @@
         <v>30000000</v>
       </c>
       <c r="K25" s="53">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>726050000</v>
       </c>
       <c r="L25" s="39">
@@ -8353,7 +8975,7 @@
         <v>30000000</v>
       </c>
       <c r="O25" s="53">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>700950000</v>
       </c>
       <c r="P25" s="39">
@@ -8366,8 +8988,14 @@
         <f t="shared" si="0"/>
         <v>713.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="76">
+        <v>1.62</v>
+      </c>
+      <c r="T25" s="76">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>10</v>
@@ -8397,7 +9025,7 @@
         <v>30000000</v>
       </c>
       <c r="K26" s="53">
-        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>731050000</v>
       </c>
       <c r="L26" s="39">
@@ -8410,7 +9038,7 @@
         <v>30000000</v>
       </c>
       <c r="O26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>690950000</v>
       </c>
       <c r="P26" s="39">
@@ -8423,8 +9051,14 @@
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T26" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>10</v>
@@ -8454,7 +9088,7 @@
         <v>30000000</v>
       </c>
       <c r="K27" s="53">
-        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>731050000</v>
       </c>
       <c r="L27" s="39">
@@ -8467,7 +9101,7 @@
         <v>30000000</v>
       </c>
       <c r="O27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>690950000</v>
       </c>
       <c r="P27" s="39">
@@ -8480,8 +9114,14 @@
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T27" s="76">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>10</v>
@@ -8511,7 +9151,7 @@
         <v>30000000</v>
       </c>
       <c r="K28" s="53">
-        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>731050000</v>
       </c>
       <c r="L28" s="39">
@@ -8524,7 +9164,7 @@
         <v>30000000</v>
       </c>
       <c r="O28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>690950000</v>
       </c>
       <c r="P28" s="39">
@@ -8536,6 +9176,12 @@
       <c r="R28" s="57">
         <f t="shared" si="0"/>
         <v>711</v>
+      </c>
+      <c r="S28" s="76">
+        <v>1.61</v>
+      </c>
+      <c r="T28" s="76">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
@@ -8545,10 +9191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDABD784-AD31-46F2-99DC-A4DD1B41AE1B}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F28"/>
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8569,9 +9215,10 @@
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -8626,14 +9273,18 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="75"/>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>13</v>
       </c>
@@ -8665,7 +9316,7 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>792050000</v>
       </c>
       <c r="L2" s="39">
@@ -8678,7 +9329,7 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>766950000</v>
       </c>
       <c r="P2" s="39">
@@ -8691,15 +9342,21 @@
         <f>C2+31</f>
         <v>779.5</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="74">
+        <v>1.81</v>
+      </c>
+      <c r="T2" s="74">
+        <v>1.72</v>
+      </c>
+      <c r="U2">
         <v>100000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>5</v>
@@ -8729,7 +9386,7 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>792050000</v>
       </c>
       <c r="L3" s="39">
@@ -8742,7 +9399,7 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>766950000</v>
       </c>
       <c r="P3" s="39">
@@ -8755,8 +9412,14 @@
         <f t="shared" ref="R3:R13" si="0">C3+31</f>
         <v>779.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="74">
+        <v>1.81</v>
+      </c>
+      <c r="T3" s="74">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>5</v>
@@ -8786,7 +9449,7 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>792050000</v>
       </c>
       <c r="L4" s="39">
@@ -8799,7 +9462,7 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>766950000</v>
       </c>
       <c r="P4" s="39">
@@ -8812,8 +9475,14 @@
         <f t="shared" si="0"/>
         <v>779.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="74">
+        <v>1.81</v>
+      </c>
+      <c r="T4" s="74">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -8843,7 +9512,7 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>794550000</v>
       </c>
       <c r="L5" s="39">
@@ -8856,7 +9525,7 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>769450000</v>
       </c>
       <c r="P5" s="39">
@@ -8869,8 +9538,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="74">
+        <v>1.82</v>
+      </c>
+      <c r="T5" s="74">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -8900,7 +9575,7 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>794550000</v>
       </c>
       <c r="L6" s="39">
@@ -8913,7 +9588,7 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>769450000</v>
       </c>
       <c r="P6" s="39">
@@ -8926,8 +9601,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="74">
+        <v>1.82</v>
+      </c>
+      <c r="T6" s="74">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -8957,7 +9638,7 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>794550000</v>
       </c>
       <c r="L7" s="39">
@@ -8970,7 +9651,7 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>769450000</v>
       </c>
       <c r="P7" s="39">
@@ -8983,8 +9664,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="74">
+        <v>1.82</v>
+      </c>
+      <c r="T7" s="74">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>5</v>
@@ -9014,7 +9701,7 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>797050000</v>
       </c>
       <c r="L8" s="39">
@@ -9027,7 +9714,7 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>771950000</v>
       </c>
       <c r="P8" s="39">
@@ -9040,8 +9727,14 @@
         <f t="shared" si="0"/>
         <v>784.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="74">
+        <v>1.83</v>
+      </c>
+      <c r="T8" s="74">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>5</v>
@@ -9071,7 +9764,7 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>797050000</v>
       </c>
       <c r="L9" s="39">
@@ -9084,7 +9777,7 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>771950000</v>
       </c>
       <c r="P9" s="39">
@@ -9097,8 +9790,14 @@
         <f t="shared" si="0"/>
         <v>784.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="74">
+        <v>1.83</v>
+      </c>
+      <c r="T9" s="74">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>5</v>
@@ -9128,7 +9827,7 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>797050000</v>
       </c>
       <c r="L10" s="39">
@@ -9141,7 +9840,7 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>771950000</v>
       </c>
       <c r="P10" s="39">
@@ -9154,8 +9853,14 @@
         <f t="shared" si="0"/>
         <v>784.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="74">
+        <v>1.83</v>
+      </c>
+      <c r="T10" s="74">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>10</v>
@@ -9185,7 +9890,7 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>802050000</v>
       </c>
       <c r="L11" s="39">
@@ -9198,7 +9903,7 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>761950000</v>
       </c>
       <c r="P11" s="39">
@@ -9211,8 +9916,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="74">
+        <v>1.82</v>
+      </c>
+      <c r="T11" s="74">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>10</v>
@@ -9242,7 +9953,7 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>802050000</v>
       </c>
       <c r="L12" s="39">
@@ -9255,7 +9966,7 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>761950000</v>
       </c>
       <c r="P12" s="39">
@@ -9268,8 +9979,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="74">
+        <v>1.82</v>
+      </c>
+      <c r="T12" s="74">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -9299,7 +10016,7 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>802050000</v>
       </c>
       <c r="L13" s="39">
@@ -9312,7 +10029,7 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>761950000</v>
       </c>
       <c r="P13" s="39">
@@ -9325,14 +10042,20 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="74">
+        <v>1.82</v>
+      </c>
+      <c r="T13" s="74">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F14" s="68"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F15" s="68"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F16" s="68"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
@@ -9379,10 +10102,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9396,9 +10119,10 @@
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -9453,14 +10177,20 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>66</v>
       </c>
@@ -9495,7 +10225,7 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M2" s="39">
@@ -9508,7 +10238,7 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q2" s="39">
@@ -9518,15 +10248,21 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="76">
+        <v>4.47</v>
+      </c>
+      <c r="T2" s="76">
+        <v>5.61</v>
+      </c>
+      <c r="U2">
         <v>1000000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -9559,7 +10295,7 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M3" s="39">
@@ -9572,7 +10308,7 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q3" s="39">
@@ -9582,8 +10318,14 @@
         <f t="shared" ref="R3:R28" si="0">C3-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="76">
+        <v>4.47</v>
+      </c>
+      <c r="T3" s="76">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -9616,7 +10358,7 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M4" s="39">
@@ -9629,7 +10371,7 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q4" s="39">
@@ -9639,8 +10381,14 @@
         <f t="shared" si="0"/>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="76">
+        <v>4.47</v>
+      </c>
+      <c r="T4" s="76">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -9673,7 +10421,7 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M5" s="39">
@@ -9686,7 +10434,7 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="58">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q5" s="39">
@@ -9696,8 +10444,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="76">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T5" s="76">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -9730,7 +10484,7 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M6" s="39">
@@ -9743,7 +10497,7 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="58">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q6" s="39">
@@ -9753,8 +10507,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="76">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T6" s="76">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -9787,7 +10547,7 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M7" s="39">
@@ -9800,7 +10560,7 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="58">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q7" s="39">
@@ -9810,8 +10570,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="76">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T7" s="76">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -9844,7 +10610,7 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M8" s="39">
@@ -9857,7 +10623,7 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q8" s="39">
@@ -9867,8 +10633,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="76">
+        <v>4.5</v>
+      </c>
+      <c r="T8" s="76">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -9901,7 +10673,7 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M9" s="39">
@@ -9914,7 +10686,7 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q9" s="39">
@@ -9924,8 +10696,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="76">
+        <v>4.5</v>
+      </c>
+      <c r="T9" s="76">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -9958,7 +10736,7 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M10" s="39">
@@ -9971,7 +10749,7 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q10" s="39">
@@ -9981,8 +10759,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="76">
+        <v>4.5</v>
+      </c>
+      <c r="T10" s="76">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -10015,7 +10799,7 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1749000000</v>
       </c>
       <c r="M11" s="39">
@@ -10028,7 +10812,7 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1741000000</v>
       </c>
       <c r="Q11" s="39">
@@ -10038,8 +10822,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T11" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -10072,7 +10862,7 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1749000000</v>
       </c>
       <c r="M12" s="39">
@@ -10085,7 +10875,7 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1741000000</v>
       </c>
       <c r="Q12" s="39">
@@ -10095,8 +10885,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T12" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -10129,7 +10925,7 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1749000000</v>
       </c>
       <c r="M13" s="39">
@@ -10142,7 +10938,7 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1741000000</v>
       </c>
       <c r="Q13" s="39">
@@ -10152,8 +10948,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T13" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -10186,7 +10988,7 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="53">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1758000000</v>
       </c>
       <c r="M14" s="39">
@@ -10199,7 +11001,7 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="58">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1732000000</v>
       </c>
       <c r="Q14" s="39">
@@ -10209,8 +11011,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T14" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -10243,7 +11051,7 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="53">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1758000000</v>
       </c>
       <c r="M15" s="39">
@@ -10256,7 +11064,7 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="58">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1732000000</v>
       </c>
       <c r="Q15" s="39">
@@ -10266,8 +11074,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T15" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -10300,7 +11114,7 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="53">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1758000000</v>
       </c>
       <c r="M16" s="39">
@@ -10313,7 +11127,7 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="58">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1732000000</v>
       </c>
       <c r="Q16" s="39">
@@ -10323,8 +11137,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T16" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>20</v>
@@ -10357,7 +11177,7 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="53">
-        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M17" s="39">
@@ -10370,7 +11190,7 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q17" s="39">
@@ -10380,8 +11200,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T17" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>20</v>
@@ -10414,7 +11240,7 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="53">
-        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M18" s="39">
@@ -10427,7 +11253,7 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q18" s="39">
@@ -10437,8 +11263,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T18" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>20</v>
@@ -10471,7 +11303,7 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="53">
-        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M19" s="39">
@@ -10484,7 +11316,7 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q19" s="39">
@@ -10494,8 +11326,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="76">
+        <v>4.57</v>
+      </c>
+      <c r="T19" s="76">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -10528,7 +11366,7 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="53">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1783300000.0000002</v>
       </c>
       <c r="M20" s="39">
@@ -10541,7 +11379,7 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1775300000.0000002</v>
       </c>
       <c r="Q20" s="39">
@@ -10551,8 +11389,14 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="76">
+        <v>4.67</v>
+      </c>
+      <c r="T20" s="76">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -10585,7 +11429,7 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="53">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1783300000.0000002</v>
       </c>
       <c r="M21" s="39">
@@ -10598,7 +11442,7 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1775300000.0000002</v>
       </c>
       <c r="Q21" s="39">
@@ -10608,8 +11452,14 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="76">
+        <v>4.67</v>
+      </c>
+      <c r="T21" s="76">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -10642,7 +11492,7 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="53">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1783300000.0000002</v>
       </c>
       <c r="M22" s="39">
@@ -10655,7 +11505,7 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1775300000.0000002</v>
       </c>
       <c r="Q22" s="39">
@@ -10665,8 +11515,14 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="76">
+        <v>4.67</v>
+      </c>
+      <c r="T22" s="76">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -10699,7 +11555,7 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="53">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1790500000</v>
       </c>
       <c r="M23" s="39">
@@ -10712,7 +11568,7 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="58">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1764500000</v>
       </c>
       <c r="Q23" s="39">
@@ -10722,8 +11578,14 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="76">
+        <v>4.66</v>
+      </c>
+      <c r="T23" s="76">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -10756,7 +11618,7 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="53">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1790500000</v>
       </c>
       <c r="M24" s="39">
@@ -10769,7 +11631,7 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="58">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1764500000</v>
       </c>
       <c r="Q24" s="39">
@@ -10779,8 +11641,14 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="76">
+        <v>4.66</v>
+      </c>
+      <c r="T24" s="76">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -10813,7 +11681,7 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="53">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1790500000</v>
       </c>
       <c r="M25" s="39">
@@ -10826,7 +11694,7 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="58">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1764500000</v>
       </c>
       <c r="Q25" s="39">
@@ -10836,8 +11704,14 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="76">
+        <v>4.66</v>
+      </c>
+      <c r="T25" s="76">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>20</v>
@@ -10870,7 +11744,7 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="53">
-        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1805500000</v>
       </c>
       <c r="M26" s="39">
@@ -10883,7 +11757,7 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1734500000</v>
       </c>
       <c r="Q26" s="39">
@@ -10893,8 +11767,14 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="76">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="T26" s="76">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>20</v>
@@ -10927,7 +11807,7 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="53">
-        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1805500000</v>
       </c>
       <c r="M27" s="39">
@@ -10940,7 +11820,7 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1734500000</v>
       </c>
       <c r="Q27" s="39">
@@ -10950,8 +11830,14 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="76">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="T27" s="76">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>20</v>
@@ -10984,7 +11870,7 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="53">
-        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1805500000</v>
       </c>
       <c r="M28" s="39">
@@ -10997,7 +11883,7 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1734500000</v>
       </c>
       <c r="Q28" s="39">
@@ -11006,6 +11892,12 @@
       <c r="R28" s="57">
         <f t="shared" si="0"/>
         <v>1770</v>
+      </c>
+      <c r="S28" s="76">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="T28" s="76">
+        <v>5.78</v>
       </c>
     </row>
   </sheetData>
